--- a/dataset-pgc-processed.xlsx
+++ b/dataset-pgc-processed.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Dropbox\UFABC\PGC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE42DB-A8D4-4DBF-84F5-382D0B644E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Título Representativo</t>
   </si>
@@ -160,15 +153,12 @@
   <si>
     <t>área-Tecnologia</t>
   </si>
-  <si>
-    <t>%</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +168,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -224,47 +207,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -306,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,27 +299,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,24 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,16 +508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT146"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="A2">
         <v>1</v>
       </c>
@@ -764,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="L2">
         <v>345</v>
@@ -776,28 +699,28 @@
         <v>0.3362</v>
       </c>
       <c r="O2">
-        <v>7.5399999999999995E-2</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="P2">
         <v>0.1159</v>
       </c>
       <c r="Q2">
-        <v>0.14199999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="R2">
-        <v>0.15939999999999999</v>
+        <v>0.1594</v>
       </c>
       <c r="S2">
-        <v>4.0599999999999997E-2</v>
+        <v>0.0406</v>
       </c>
       <c r="T2">
-        <v>4.6399999999999997E-2</v>
+        <v>0.0464</v>
       </c>
       <c r="U2">
-        <v>8.9899999999999994E-2</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="V2">
-        <v>1.1599999999999999E-2</v>
+        <v>0.0116</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -872,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="A3">
         <v>1</v>
       </c>
@@ -904,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L3">
         <v>532</v>
@@ -913,13 +836,13 @@
         <v>18</v>
       </c>
       <c r="N3">
-        <v>0.36840000000000001</v>
+        <v>0.3684</v>
       </c>
       <c r="O3">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="P3">
-        <v>0.10340000000000001</v>
+        <v>0.1034</v>
       </c>
       <c r="Q3">
         <v>0.1673</v>
@@ -928,16 +851,16 @@
         <v>0.1729</v>
       </c>
       <c r="S3">
-        <v>4.8899999999999999E-2</v>
+        <v>0.0489</v>
       </c>
       <c r="T3">
-        <v>1.6899999999999998E-2</v>
+        <v>0.0169</v>
       </c>
       <c r="U3">
         <v>0.1222</v>
       </c>
       <c r="V3">
-        <v>1.32E-2</v>
+        <v>0.0132</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -949,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="Z3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA3">
         <v>810</v>
@@ -1012,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1044,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="L4">
         <v>913</v>
@@ -1053,31 +976,31 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>0.33950000000000002</v>
+        <v>0.3395</v>
       </c>
       <c r="O4">
-        <v>5.3699999999999998E-2</v>
+        <v>0.0537</v>
       </c>
       <c r="P4">
-        <v>0.15440000000000001</v>
+        <v>0.1544</v>
       </c>
       <c r="Q4">
         <v>0.1249</v>
       </c>
       <c r="R4">
-        <v>0.17960000000000001</v>
+        <v>0.1796</v>
       </c>
       <c r="S4">
-        <v>3.7199999999999997E-2</v>
+        <v>0.0372</v>
       </c>
       <c r="T4">
-        <v>4.82E-2</v>
+        <v>0.0482</v>
       </c>
       <c r="U4">
-        <v>8.3199999999999996E-2</v>
+        <v>0.0832</v>
       </c>
       <c r="V4">
-        <v>1.7500000000000002E-2</v>
+        <v>0.0175</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1152,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1184,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L5">
         <v>322</v>
@@ -1193,31 +1116,31 @@
         <v>6</v>
       </c>
       <c r="N5">
-        <v>0.37580000000000002</v>
+        <v>0.3758</v>
       </c>
       <c r="O5">
-        <v>5.28E-2</v>
+        <v>0.0528</v>
       </c>
       <c r="P5">
         <v>0.1273</v>
       </c>
       <c r="Q5">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="R5">
-        <v>0.15840000000000001</v>
+        <v>0.1584</v>
       </c>
       <c r="S5">
-        <v>4.3499999999999997E-2</v>
+        <v>0.0435</v>
       </c>
       <c r="T5">
-        <v>3.73E-2</v>
+        <v>0.0373</v>
       </c>
       <c r="U5">
-        <v>0.13350000000000001</v>
+        <v>0.1335</v>
       </c>
       <c r="V5">
-        <v>1.24E-2</v>
+        <v>0.0124</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1292,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1324,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="L6">
         <v>557</v>
@@ -1336,28 +1259,28 @@
         <v>0.4022</v>
       </c>
       <c r="O6">
-        <v>7.7200000000000005E-2</v>
+        <v>0.0772</v>
       </c>
       <c r="P6">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="Q6">
         <v>0.1598</v>
       </c>
       <c r="R6">
-        <v>0.15440000000000001</v>
+        <v>0.1544</v>
       </c>
       <c r="S6">
-        <v>3.95E-2</v>
+        <v>0.0395</v>
       </c>
       <c r="T6">
-        <v>3.0499999999999999E-2</v>
+        <v>0.0305</v>
       </c>
       <c r="U6">
         <v>0.1472</v>
       </c>
       <c r="V6">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1432,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1464,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="L7">
         <v>400</v>
@@ -1473,25 +1396,25 @@
         <v>9</v>
       </c>
       <c r="N7">
-        <v>0.28249999999999997</v>
+        <v>0.2825</v>
       </c>
       <c r="O7">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="P7">
         <v>0.1525</v>
       </c>
       <c r="Q7">
-        <v>5.7500000000000002E-2</v>
+        <v>0.0575</v>
       </c>
       <c r="R7">
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="S7">
-        <v>2.75E-2</v>
+        <v>0.0275</v>
       </c>
       <c r="T7">
-        <v>4.7500000000000001E-2</v>
+        <v>0.0475</v>
       </c>
       <c r="U7">
         <v>0.1225</v>
@@ -1572,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1604,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1360</v>
+        <v>1372</v>
       </c>
       <c r="L8">
         <v>400</v>
@@ -1616,7 +1539,7 @@
         <v>0.36</v>
       </c>
       <c r="O8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="P8">
         <v>0.1275</v>
@@ -1628,7 +1551,7 @@
         <v>0.16</v>
       </c>
       <c r="S8">
-        <v>3.7499999999999999E-2</v>
+        <v>0.0375</v>
       </c>
       <c r="T8">
         <v>0.03</v>
@@ -1712,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1744,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="L9">
         <v>345</v>
@@ -1753,31 +1676,31 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>0.29570000000000002</v>
+        <v>0.2957</v>
       </c>
       <c r="O9">
-        <v>4.0599999999999997E-2</v>
+        <v>0.0406</v>
       </c>
       <c r="P9">
         <v>0.1623</v>
       </c>
       <c r="Q9">
-        <v>3.4799999999999998E-2</v>
+        <v>0.0348</v>
       </c>
       <c r="R9">
         <v>0.1681</v>
       </c>
       <c r="S9">
-        <v>4.0599999999999997E-2</v>
+        <v>0.0406</v>
       </c>
       <c r="T9">
-        <v>3.7699999999999997E-2</v>
+        <v>0.0377</v>
       </c>
       <c r="U9">
         <v>0.1072</v>
       </c>
       <c r="V9">
-        <v>2.0299999999999999E-2</v>
+        <v>0.0203</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1852,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1884,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="L10">
         <v>577</v>
@@ -1893,25 +1816,25 @@
         <v>9</v>
       </c>
       <c r="N10">
-        <v>0.30159999999999998</v>
+        <v>0.3016</v>
       </c>
       <c r="O10">
-        <v>5.0299999999999997E-2</v>
+        <v>0.0503</v>
       </c>
       <c r="P10">
         <v>0.1404</v>
       </c>
       <c r="Q10">
-        <v>2.2499999999999999E-2</v>
+        <v>0.0225</v>
       </c>
       <c r="R10">
         <v>0.2132</v>
       </c>
       <c r="S10">
-        <v>3.1199999999999999E-2</v>
+        <v>0.0312</v>
       </c>
       <c r="T10">
-        <v>4.1599999999999998E-2</v>
+        <v>0.0416</v>
       </c>
       <c r="U10">
         <v>0.1075</v>
@@ -1992,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2024,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="L11">
         <v>1129</v>
@@ -2033,31 +1956,31 @@
         <v>20</v>
       </c>
       <c r="N11">
-        <v>0.31979999999999997</v>
+        <v>0.3198</v>
       </c>
       <c r="O11">
-        <v>6.6400000000000001E-2</v>
+        <v>0.0664</v>
       </c>
       <c r="P11">
         <v>0.1027</v>
       </c>
       <c r="Q11">
-        <v>0.13020000000000001</v>
+        <v>0.1302</v>
       </c>
       <c r="R11">
         <v>0.1807</v>
       </c>
       <c r="S11">
-        <v>2.4799999999999999E-2</v>
+        <v>0.0248</v>
       </c>
       <c r="T11">
-        <v>5.7599999999999998E-2</v>
+        <v>0.0576</v>
       </c>
       <c r="U11">
-        <v>0.11600000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="V11">
-        <v>7.1000000000000004E-3</v>
+        <v>0.0071</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2132,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2164,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1136</v>
+        <v>1151</v>
       </c>
       <c r="L12">
         <v>439</v>
@@ -2173,10 +2096,10 @@
         <v>11</v>
       </c>
       <c r="N12">
-        <v>0.33029999999999998</v>
+        <v>0.3303</v>
       </c>
       <c r="O12">
-        <v>6.1499999999999999E-2</v>
+        <v>0.0615</v>
       </c>
       <c r="P12">
         <v>0.1071</v>
@@ -2185,19 +2108,19 @@
         <v>0.1162</v>
       </c>
       <c r="R12">
-        <v>0.20730000000000001</v>
+        <v>0.2073</v>
       </c>
       <c r="S12">
-        <v>2.9600000000000001E-2</v>
+        <v>0.0296</v>
       </c>
       <c r="T12">
-        <v>5.4699999999999999E-2</v>
+        <v>0.0547</v>
       </c>
       <c r="U12">
         <v>0.1071</v>
       </c>
       <c r="V12">
-        <v>2.3E-3</v>
+        <v>0.0023</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2272,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2304,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="L13">
         <v>311</v>
@@ -2313,28 +2236,28 @@
         <v>7</v>
       </c>
       <c r="N13">
-        <v>0.27650000000000002</v>
+        <v>0.2765</v>
       </c>
       <c r="O13">
-        <v>8.0399999999999999E-2</v>
+        <v>0.0804</v>
       </c>
       <c r="P13">
-        <v>0.12540000000000001</v>
+        <v>0.1254</v>
       </c>
       <c r="Q13">
-        <v>3.5400000000000001E-2</v>
+        <v>0.0354</v>
       </c>
       <c r="R13">
         <v>0.1865</v>
       </c>
       <c r="S13">
-        <v>2.8899999999999999E-2</v>
+        <v>0.0289</v>
       </c>
       <c r="T13">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="U13">
-        <v>0.10290000000000001</v>
+        <v>0.1029</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2412,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2444,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="L14">
         <v>300</v>
@@ -2453,22 +2376,22 @@
         <v>7</v>
       </c>
       <c r="N14">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="O14">
-        <v>0.14330000000000001</v>
+        <v>0.1433</v>
       </c>
       <c r="P14">
-        <v>8.6699999999999999E-2</v>
+        <v>0.0867</v>
       </c>
       <c r="Q14">
-        <v>1.67E-2</v>
+        <v>0.0167</v>
       </c>
       <c r="R14">
         <v>0.17</v>
       </c>
       <c r="S14">
-        <v>4.3299999999999998E-2</v>
+        <v>0.0433</v>
       </c>
       <c r="T14">
         <v>0.03</v>
@@ -2552,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2584,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="L15">
         <v>516</v>
@@ -2593,31 +2516,31 @@
         <v>8</v>
       </c>
       <c r="N15">
-        <v>0.34689999999999999</v>
+        <v>0.3469</v>
       </c>
       <c r="O15">
-        <v>5.62E-2</v>
+        <v>0.0562</v>
       </c>
       <c r="P15">
         <v>0.1105</v>
       </c>
       <c r="Q15">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="R15">
         <v>0.188</v>
       </c>
       <c r="S15">
-        <v>3.2899999999999999E-2</v>
+        <v>0.0329</v>
       </c>
       <c r="T15">
-        <v>4.4600000000000001E-2</v>
+        <v>0.0446</v>
       </c>
       <c r="U15">
         <v>0.124</v>
       </c>
       <c r="V15">
-        <v>5.7999999999999996E-3</v>
+        <v>0.0058</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2692,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2724,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1497</v>
+        <v>1510</v>
       </c>
       <c r="L16">
         <v>345</v>
@@ -2733,31 +2656,31 @@
         <v>8</v>
       </c>
       <c r="N16">
-        <v>0.28120000000000001</v>
+        <v>0.2812</v>
       </c>
       <c r="O16">
-        <v>7.2499999999999995E-2</v>
+        <v>0.0725</v>
       </c>
       <c r="P16">
         <v>0.1275</v>
       </c>
       <c r="Q16">
-        <v>4.0599999999999997E-2</v>
+        <v>0.0406</v>
       </c>
       <c r="R16">
-        <v>0.17680000000000001</v>
+        <v>0.1768</v>
       </c>
       <c r="S16">
-        <v>5.2200000000000003E-2</v>
+        <v>0.0522</v>
       </c>
       <c r="T16">
-        <v>6.3799999999999996E-2</v>
+        <v>0.0638</v>
       </c>
       <c r="U16">
         <v>0.1014</v>
       </c>
       <c r="V16">
-        <v>2.8999999999999998E-3</v>
+        <v>0.0029</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2832,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2864,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L17">
         <v>341</v>
@@ -2873,31 +2796,31 @@
         <v>7</v>
       </c>
       <c r="N17">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="O17">
         <v>0.1202</v>
       </c>
       <c r="P17">
-        <v>9.0899999999999995E-2</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="Q17">
-        <v>2.93E-2</v>
+        <v>0.0293</v>
       </c>
       <c r="R17">
-        <v>0.16420000000000001</v>
+        <v>0.1642</v>
       </c>
       <c r="S17">
-        <v>3.8100000000000002E-2</v>
+        <v>0.0381</v>
       </c>
       <c r="T17">
-        <v>4.1099999999999998E-2</v>
+        <v>0.0411</v>
       </c>
       <c r="U17">
-        <v>0.13780000000000001</v>
+        <v>0.1378</v>
       </c>
       <c r="V17">
-        <v>1.47E-2</v>
+        <v>0.0147</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -2972,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3004,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="L18">
         <v>799</v>
@@ -3016,25 +2939,25 @@
         <v>0.2215</v>
       </c>
       <c r="O18">
-        <v>6.2600000000000003E-2</v>
+        <v>0.0626</v>
       </c>
       <c r="P18">
         <v>0.1464</v>
       </c>
       <c r="Q18">
-        <v>3.8800000000000001E-2</v>
+        <v>0.0388</v>
       </c>
       <c r="R18">
         <v>0.1464</v>
       </c>
       <c r="S18">
-        <v>4.2599999999999999E-2</v>
+        <v>0.0426</v>
       </c>
       <c r="T18">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
       <c r="U18">
-        <v>7.7600000000000002E-2</v>
+        <v>0.0776</v>
       </c>
       <c r="V18">
         <v>0.01</v>
@@ -3112,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3144,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="L19">
         <v>609</v>
@@ -3153,31 +3076,31 @@
         <v>9</v>
       </c>
       <c r="N19">
-        <v>0.35470000000000002</v>
+        <v>0.3547</v>
       </c>
       <c r="O19">
-        <v>6.7299999999999999E-2</v>
+        <v>0.0673</v>
       </c>
       <c r="P19">
         <v>0.1133</v>
       </c>
       <c r="Q19">
-        <v>0.13139999999999999</v>
+        <v>0.1314</v>
       </c>
       <c r="R19">
         <v>0.1658</v>
       </c>
       <c r="S19">
-        <v>4.1099999999999998E-2</v>
+        <v>0.0411</v>
       </c>
       <c r="T19">
-        <v>5.2499999999999998E-2</v>
+        <v>0.0525</v>
       </c>
       <c r="U19">
-        <v>0.10340000000000001</v>
+        <v>0.1034</v>
       </c>
       <c r="V19">
-        <v>1.8100000000000002E-2</v>
+        <v>0.0181</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -3252,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3284,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L20">
         <v>714</v>
@@ -3293,10 +3216,10 @@
         <v>16</v>
       </c>
       <c r="N20">
-        <v>0.35289999999999999</v>
+        <v>0.3529</v>
       </c>
       <c r="O20">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="P20">
         <v>0.1008</v>
@@ -3305,19 +3228,19 @@
         <v>0.1961</v>
       </c>
       <c r="R20">
-        <v>0.15409999999999999</v>
+        <v>0.1541</v>
       </c>
       <c r="S20">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="T20">
-        <v>5.1799999999999999E-2</v>
+        <v>0.0518</v>
       </c>
       <c r="U20">
-        <v>0.13170000000000001</v>
+        <v>0.1317</v>
       </c>
       <c r="V20">
-        <v>3.6400000000000002E-2</v>
+        <v>0.0364</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3392,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3424,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L21">
         <v>612</v>
@@ -3433,31 +3356,31 @@
         <v>9</v>
       </c>
       <c r="N21">
-        <v>0.34150000000000003</v>
+        <v>0.3415</v>
       </c>
       <c r="O21">
-        <v>9.8000000000000004E-2</v>
+        <v>0.098</v>
       </c>
       <c r="P21">
-        <v>9.9699999999999997E-2</v>
+        <v>0.0997</v>
       </c>
       <c r="Q21">
-        <v>5.5599999999999997E-2</v>
+        <v>0.0556</v>
       </c>
       <c r="R21">
         <v>0.1356</v>
       </c>
       <c r="S21">
-        <v>3.5900000000000001E-2</v>
+        <v>0.0359</v>
       </c>
       <c r="T21">
-        <v>5.2299999999999999E-2</v>
+        <v>0.0523</v>
       </c>
       <c r="U21">
-        <v>0.13400000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="V21">
-        <v>1.3100000000000001E-2</v>
+        <v>0.0131</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -3532,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3564,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="L22">
         <v>375</v>
@@ -3573,31 +3496,31 @@
         <v>11</v>
       </c>
       <c r="N22">
-        <v>0.27729999999999999</v>
+        <v>0.2773</v>
       </c>
       <c r="O22">
         <v>0.104</v>
       </c>
       <c r="P22">
-        <v>0.16800000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="Q22">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="R22">
-        <v>0.13869999999999999</v>
+        <v>0.1387</v>
       </c>
       <c r="S22">
-        <v>4.53E-2</v>
+        <v>0.0453</v>
       </c>
       <c r="T22">
-        <v>5.0700000000000002E-2</v>
+        <v>0.0507</v>
       </c>
       <c r="U22">
-        <v>7.1999999999999995E-2</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V22">
-        <v>2.6700000000000002E-2</v>
+        <v>0.0267</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -3672,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3704,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="L23">
         <v>236</v>
@@ -3713,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="N23">
-        <v>0.33050000000000002</v>
+        <v>0.3305</v>
       </c>
       <c r="O23">
         <v>0.1186</v>
@@ -3722,22 +3645,22 @@
         <v>0.1229</v>
       </c>
       <c r="Q23">
-        <v>3.39E-2</v>
+        <v>0.0339</v>
       </c>
       <c r="R23">
-        <v>0.23730000000000001</v>
+        <v>0.2373</v>
       </c>
       <c r="S23">
-        <v>1.6899999999999998E-2</v>
+        <v>0.0169</v>
       </c>
       <c r="T23">
-        <v>2.12E-2</v>
+        <v>0.0212</v>
       </c>
       <c r="U23">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="V23">
-        <v>1.2699999999999999E-2</v>
+        <v>0.0127</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -3812,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3844,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1328</v>
+        <v>1341</v>
       </c>
       <c r="L24">
         <v>438</v>
@@ -3856,28 +3779,28 @@
         <v>0.3014</v>
       </c>
       <c r="O24">
-        <v>8.6800000000000002E-2</v>
+        <v>0.0868</v>
       </c>
       <c r="P24">
         <v>0.1142</v>
       </c>
       <c r="Q24">
-        <v>2.0500000000000001E-2</v>
+        <v>0.0205</v>
       </c>
       <c r="R24">
-        <v>0.17119999999999999</v>
+        <v>0.1712</v>
       </c>
       <c r="S24">
-        <v>4.1099999999999998E-2</v>
+        <v>0.0411</v>
       </c>
       <c r="T24">
-        <v>5.2499999999999998E-2</v>
+        <v>0.0525</v>
       </c>
       <c r="U24">
         <v>0.1096</v>
       </c>
       <c r="V24">
-        <v>6.7999999999999996E-3</v>
+        <v>0.0068</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -3889,7 +3812,7 @@
         <v>40</v>
       </c>
       <c r="Z24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA24">
         <v>733</v>
@@ -3952,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3984,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="L25">
         <v>766</v>
@@ -3993,31 +3916,31 @@
         <v>10</v>
       </c>
       <c r="N25">
-        <v>0.31330000000000002</v>
+        <v>0.3133</v>
       </c>
       <c r="O25">
-        <v>4.8300000000000003E-2</v>
+        <v>0.0483</v>
       </c>
       <c r="P25">
-        <v>0.12529999999999999</v>
+        <v>0.1253</v>
       </c>
       <c r="Q25">
-        <v>0.12920000000000001</v>
+        <v>0.1292</v>
       </c>
       <c r="R25">
-        <v>0.19320000000000001</v>
+        <v>0.1932</v>
       </c>
       <c r="S25">
-        <v>3.6600000000000001E-2</v>
+        <v>0.0366</v>
       </c>
       <c r="T25">
-        <v>6.0100000000000001E-2</v>
+        <v>0.0601</v>
       </c>
       <c r="U25">
-        <v>9.7900000000000001E-2</v>
+        <v>0.0979</v>
       </c>
       <c r="V25">
-        <v>6.4999999999999997E-3</v>
+        <v>0.0065</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -4092,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4124,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L26">
         <v>381</v>
@@ -4133,31 +4056,31 @@
         <v>8</v>
       </c>
       <c r="N26">
-        <v>0.29659999999999997</v>
+        <v>0.2966</v>
       </c>
       <c r="O26">
-        <v>4.7199999999999999E-2</v>
+        <v>0.0472</v>
       </c>
       <c r="P26">
-        <v>0.11550000000000001</v>
+        <v>0.1155</v>
       </c>
       <c r="Q26">
-        <v>1.84E-2</v>
+        <v>0.0184</v>
       </c>
       <c r="R26">
-        <v>0.20469999999999999</v>
+        <v>0.2047</v>
       </c>
       <c r="S26">
-        <v>1.84E-2</v>
+        <v>0.0184</v>
       </c>
       <c r="T26">
-        <v>5.7700000000000001E-2</v>
+        <v>0.0577</v>
       </c>
       <c r="U26">
-        <v>0.14169999999999999</v>
+        <v>0.1417</v>
       </c>
       <c r="V26">
-        <v>2.6200000000000001E-2</v>
+        <v>0.0262</v>
       </c>
       <c r="W26">
         <v>1</v>
@@ -4232,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4264,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L27">
         <v>371</v>
@@ -4273,31 +4196,31 @@
         <v>7</v>
       </c>
       <c r="N27">
-        <v>0.38009999999999999</v>
+        <v>0.3801</v>
       </c>
       <c r="O27">
-        <v>0.10780000000000001</v>
+        <v>0.1078</v>
       </c>
       <c r="P27">
-        <v>8.8900000000000007E-2</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="Q27">
-        <v>9.7000000000000003E-2</v>
+        <v>0.097</v>
       </c>
       <c r="R27">
-        <v>0.19409999999999999</v>
+        <v>0.1941</v>
       </c>
       <c r="S27">
-        <v>2.1600000000000001E-2</v>
+        <v>0.0216</v>
       </c>
       <c r="T27">
-        <v>2.1600000000000001E-2</v>
+        <v>0.0216</v>
       </c>
       <c r="U27">
         <v>0.1105</v>
       </c>
       <c r="V27">
-        <v>1.6199999999999999E-2</v>
+        <v>0.0162</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -4372,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4404,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1295</v>
+        <v>1315</v>
       </c>
       <c r="L28">
         <v>1757</v>
@@ -4413,31 +4336,31 @@
         <v>46</v>
       </c>
       <c r="N28">
-        <v>0.29770000000000002</v>
+        <v>0.2977</v>
       </c>
       <c r="O28">
-        <v>5.9200000000000003E-2</v>
+        <v>0.0592</v>
       </c>
       <c r="P28">
-        <v>0.15820000000000001</v>
+        <v>0.1582</v>
       </c>
       <c r="Q28">
-        <v>8.0299999999999996E-2</v>
+        <v>0.0803</v>
       </c>
       <c r="R28">
-        <v>0.13719999999999999</v>
+        <v>0.1372</v>
       </c>
       <c r="S28">
-        <v>4.2700000000000002E-2</v>
+        <v>0.0427</v>
       </c>
       <c r="T28">
-        <v>5.3499999999999999E-2</v>
+        <v>0.0535</v>
       </c>
       <c r="U28">
         <v>0.1138</v>
       </c>
       <c r="V28">
-        <v>5.7000000000000002E-3</v>
+        <v>0.0057</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -4512,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4544,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="L29">
         <v>330</v>
@@ -4562,16 +4485,16 @@
         <v>0.1424</v>
       </c>
       <c r="Q29">
-        <v>1.8200000000000001E-2</v>
+        <v>0.0182</v>
       </c>
       <c r="R29">
         <v>0.1273</v>
       </c>
       <c r="S29">
-        <v>3.6400000000000002E-2</v>
+        <v>0.0364</v>
       </c>
       <c r="T29">
-        <v>3.3300000000000003E-2</v>
+        <v>0.0333</v>
       </c>
       <c r="U29">
         <v>0.1394</v>
@@ -4652,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4684,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L30">
         <v>339</v>
@@ -4693,31 +4616,31 @@
         <v>7</v>
       </c>
       <c r="N30">
-        <v>0.29199999999999998</v>
+        <v>0.292</v>
       </c>
       <c r="O30">
-        <v>7.6700000000000004E-2</v>
+        <v>0.0767</v>
       </c>
       <c r="P30">
-        <v>0.15340000000000001</v>
+        <v>0.1534</v>
       </c>
       <c r="Q30">
-        <v>3.8300000000000001E-2</v>
+        <v>0.0383</v>
       </c>
       <c r="R30">
-        <v>0.15629999999999999</v>
+        <v>0.1563</v>
       </c>
       <c r="S30">
-        <v>3.2399999999999998E-2</v>
+        <v>0.0324</v>
       </c>
       <c r="T30">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="U30">
         <v>0.1032</v>
       </c>
       <c r="V30">
-        <v>1.18E-2</v>
+        <v>0.0118</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -4792,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4824,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="L31">
         <v>355</v>
@@ -4833,25 +4756,25 @@
         <v>7</v>
       </c>
       <c r="N31">
-        <v>0.29010000000000002</v>
+        <v>0.2901</v>
       </c>
       <c r="O31">
-        <v>9.8599999999999993E-2</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="P31">
-        <v>0.14929999999999999</v>
+        <v>0.1493</v>
       </c>
       <c r="Q31">
-        <v>1.41E-2</v>
+        <v>0.0141</v>
       </c>
       <c r="R31">
-        <v>0.16619999999999999</v>
+        <v>0.1662</v>
       </c>
       <c r="S31">
-        <v>4.5100000000000001E-2</v>
+        <v>0.0451</v>
       </c>
       <c r="T31">
-        <v>5.9200000000000003E-2</v>
+        <v>0.0592</v>
       </c>
       <c r="U31">
         <v>0.107</v>
@@ -4932,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4964,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="L32">
         <v>203</v>
@@ -4976,25 +4899,25 @@
         <v>0.3695</v>
       </c>
       <c r="O32">
-        <v>8.3699999999999997E-2</v>
+        <v>0.0837</v>
       </c>
       <c r="P32">
         <v>0.1133</v>
       </c>
       <c r="Q32">
-        <v>4.9299999999999997E-2</v>
+        <v>0.0493</v>
       </c>
       <c r="R32">
-        <v>0.17730000000000001</v>
+        <v>0.1773</v>
       </c>
       <c r="S32">
-        <v>4.4299999999999999E-2</v>
+        <v>0.0443</v>
       </c>
       <c r="T32">
-        <v>7.8799999999999995E-2</v>
+        <v>0.0788</v>
       </c>
       <c r="U32">
-        <v>0.10340000000000001</v>
+        <v>0.1034</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -5072,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5104,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1478</v>
+        <v>1492</v>
       </c>
       <c r="L33">
         <v>1052</v>
@@ -5113,31 +5036,31 @@
         <v>23</v>
       </c>
       <c r="N33">
-        <v>0.25569999999999998</v>
+        <v>0.2557</v>
       </c>
       <c r="O33">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="P33">
         <v>0.1492</v>
       </c>
       <c r="Q33">
-        <v>2.6599999999999999E-2</v>
+        <v>0.0266</v>
       </c>
       <c r="R33">
-        <v>0.15970000000000001</v>
+        <v>0.1597</v>
       </c>
       <c r="S33">
-        <v>3.7100000000000001E-2</v>
+        <v>0.0371</v>
       </c>
       <c r="T33">
-        <v>6.5600000000000006E-2</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="U33">
         <v>0.1055</v>
       </c>
       <c r="V33">
-        <v>8.6E-3</v>
+        <v>0.0086</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -5212,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5244,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="L34">
         <v>619</v>
@@ -5253,31 +5176,31 @@
         <v>8</v>
       </c>
       <c r="N34">
-        <v>0.29399999999999998</v>
+        <v>0.294</v>
       </c>
       <c r="O34">
-        <v>7.9200000000000007E-2</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="P34">
         <v>0.1066</v>
       </c>
       <c r="Q34">
-        <v>4.6800000000000001E-2</v>
+        <v>0.0468</v>
       </c>
       <c r="R34">
         <v>0.1842</v>
       </c>
       <c r="S34">
-        <v>3.0700000000000002E-2</v>
+        <v>0.0307</v>
       </c>
       <c r="T34">
-        <v>5.1700000000000003E-2</v>
+        <v>0.0517</v>
       </c>
       <c r="U34">
-        <v>0.13250000000000001</v>
+        <v>0.1325</v>
       </c>
       <c r="V34">
-        <v>1.4500000000000001E-2</v>
+        <v>0.0145</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -5352,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5384,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="L35">
         <v>363</v>
@@ -5393,31 +5316,31 @@
         <v>6</v>
       </c>
       <c r="N35">
-        <v>0.30580000000000002</v>
+        <v>0.3058</v>
       </c>
       <c r="O35">
-        <v>9.9199999999999997E-2</v>
+        <v>0.0992</v>
       </c>
       <c r="P35">
         <v>0.1047</v>
       </c>
       <c r="Q35">
-        <v>3.8600000000000002E-2</v>
+        <v>0.0386</v>
       </c>
       <c r="R35">
         <v>0.1736</v>
       </c>
       <c r="S35">
-        <v>3.0300000000000001E-2</v>
+        <v>0.0303</v>
       </c>
       <c r="T35">
-        <v>5.2299999999999999E-2</v>
+        <v>0.0523</v>
       </c>
       <c r="U35">
-        <v>0.11849999999999999</v>
+        <v>0.1185</v>
       </c>
       <c r="V35">
-        <v>8.3000000000000001E-3</v>
+        <v>0.0083</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -5492,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5524,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L36">
         <v>435</v>
@@ -5533,31 +5456,31 @@
         <v>8</v>
       </c>
       <c r="N36">
-        <v>0.39539999999999997</v>
+        <v>0.3954</v>
       </c>
       <c r="O36">
-        <v>8.9700000000000002E-2</v>
+        <v>0.0897</v>
       </c>
       <c r="P36">
-        <v>8.9700000000000002E-2</v>
+        <v>0.0897</v>
       </c>
       <c r="Q36">
-        <v>9.8900000000000002E-2</v>
+        <v>0.0989</v>
       </c>
       <c r="R36">
-        <v>0.18390000000000001</v>
+        <v>0.1839</v>
       </c>
       <c r="S36">
-        <v>3.2199999999999999E-2</v>
+        <v>0.0322</v>
       </c>
       <c r="T36">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="U36">
-        <v>0.13100000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="V36">
-        <v>2.07E-2</v>
+        <v>0.0207</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -5632,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46">
       <c r="A37">
         <v>0</v>
       </c>
@@ -5664,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L37">
         <v>487</v>
@@ -5673,31 +5596,31 @@
         <v>8</v>
       </c>
       <c r="N37">
-        <v>0.30599999999999999</v>
+        <v>0.306</v>
       </c>
       <c r="O37">
-        <v>6.7799999999999999E-2</v>
+        <v>0.0678</v>
       </c>
       <c r="P37">
-        <v>0.10059999999999999</v>
+        <v>0.1006</v>
       </c>
       <c r="Q37">
-        <v>2.46E-2</v>
+        <v>0.0246</v>
       </c>
       <c r="R37">
         <v>0.1807</v>
       </c>
       <c r="S37">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="T37">
-        <v>6.5699999999999995E-2</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="U37">
         <v>0.1396</v>
       </c>
       <c r="V37">
-        <v>1.8499999999999999E-2</v>
+        <v>0.0185</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -5772,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5813,31 +5736,31 @@
         <v>7</v>
       </c>
       <c r="N38">
-        <v>0.38030000000000003</v>
+        <v>0.3803</v>
       </c>
       <c r="O38">
-        <v>6.3399999999999998E-2</v>
+        <v>0.0634</v>
       </c>
       <c r="P38">
-        <v>9.6199999999999994E-2</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="Q38">
         <v>0.1056</v>
       </c>
       <c r="R38">
-        <v>0.18310000000000001</v>
+        <v>0.1831</v>
       </c>
       <c r="S38">
-        <v>4.4600000000000001E-2</v>
+        <v>0.0446</v>
       </c>
       <c r="T38">
-        <v>3.9899999999999998E-2</v>
+        <v>0.0399</v>
       </c>
       <c r="U38">
-        <v>0.14319999999999999</v>
+        <v>0.1432</v>
       </c>
       <c r="V38">
-        <v>4.7000000000000002E-3</v>
+        <v>0.0047</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -5912,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5944,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="L39">
         <v>678</v>
@@ -5953,31 +5876,31 @@
         <v>10</v>
       </c>
       <c r="N39">
-        <v>0.33779999999999999</v>
+        <v>0.3378</v>
       </c>
       <c r="O39">
-        <v>9.7299999999999998E-2</v>
+        <v>0.0973</v>
       </c>
       <c r="P39">
-        <v>0.11210000000000001</v>
+        <v>0.1121</v>
       </c>
       <c r="Q39">
-        <v>2.2100000000000002E-2</v>
+        <v>0.0221</v>
       </c>
       <c r="R39">
         <v>0.1018</v>
       </c>
       <c r="S39">
-        <v>4.4200000000000003E-2</v>
+        <v>0.0442</v>
       </c>
       <c r="T39">
-        <v>5.4600000000000003E-2</v>
+        <v>0.0546</v>
       </c>
       <c r="U39">
         <v>0.1711</v>
       </c>
       <c r="V39">
-        <v>4.4000000000000003E-3</v>
+        <v>0.0044</v>
       </c>
       <c r="W39">
         <v>1</v>
@@ -6052,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6084,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L40">
         <v>584</v>
@@ -6093,31 +6016,31 @@
         <v>14</v>
       </c>
       <c r="N40">
-        <v>0.40920000000000001</v>
+        <v>0.4092</v>
       </c>
       <c r="O40">
-        <v>5.4800000000000001E-2</v>
+        <v>0.0548</v>
       </c>
       <c r="P40">
-        <v>9.0800000000000006E-2</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="Q40">
-        <v>0.17810000000000001</v>
+        <v>0.1781</v>
       </c>
       <c r="R40">
-        <v>0.17469999999999999</v>
+        <v>0.1747</v>
       </c>
       <c r="S40">
-        <v>3.4200000000000001E-2</v>
+        <v>0.0342</v>
       </c>
       <c r="T40">
-        <v>2.23E-2</v>
+        <v>0.0223</v>
       </c>
       <c r="U40">
         <v>0.1182</v>
       </c>
       <c r="V40">
-        <v>1.03E-2</v>
+        <v>0.0103</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -6192,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46">
       <c r="A41">
         <v>1</v>
       </c>
@@ -6224,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L41">
         <v>529</v>
@@ -6233,31 +6156,31 @@
         <v>11</v>
       </c>
       <c r="N41">
-        <v>0.31380000000000002</v>
+        <v>0.3138</v>
       </c>
       <c r="O41">
-        <v>6.8099999999999994E-2</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="P41">
         <v>0.1096</v>
       </c>
       <c r="Q41">
-        <v>0.18149999999999999</v>
+        <v>0.1815</v>
       </c>
       <c r="R41">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="S41">
-        <v>2.6499999999999999E-2</v>
+        <v>0.0265</v>
       </c>
       <c r="T41">
-        <v>6.2399999999999997E-2</v>
+        <v>0.0624</v>
       </c>
       <c r="U41">
         <v>0.1323</v>
       </c>
       <c r="V41">
-        <v>2.0799999999999999E-2</v>
+        <v>0.0208</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -6332,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6364,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="L42">
         <v>271</v>
@@ -6373,31 +6296,31 @@
         <v>7</v>
       </c>
       <c r="N42">
-        <v>0.33579999999999999</v>
+        <v>0.3358</v>
       </c>
       <c r="O42">
-        <v>7.3800000000000004E-2</v>
+        <v>0.0738</v>
       </c>
       <c r="P42">
         <v>0.1328</v>
       </c>
       <c r="Q42">
-        <v>7.0099999999999996E-2</v>
+        <v>0.0701</v>
       </c>
       <c r="R42">
         <v>0.1845</v>
       </c>
       <c r="S42">
-        <v>4.0599999999999997E-2</v>
+        <v>0.0406</v>
       </c>
       <c r="T42">
-        <v>2.58E-2</v>
+        <v>0.0258</v>
       </c>
       <c r="U42">
         <v>0.107</v>
       </c>
       <c r="V42">
-        <v>1.11E-2</v>
+        <v>0.0111</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -6472,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6504,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="L43">
         <v>1079</v>
@@ -6513,31 +6436,31 @@
         <v>13</v>
       </c>
       <c r="N43">
-        <v>0.32250000000000001</v>
+        <v>0.3225</v>
       </c>
       <c r="O43">
-        <v>5.9299999999999999E-2</v>
+        <v>0.0593</v>
       </c>
       <c r="P43">
-        <v>8.7999999999999995E-2</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="Q43">
-        <v>6.7699999999999996E-2</v>
+        <v>0.0677</v>
       </c>
       <c r="R43">
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="S43">
-        <v>2.87E-2</v>
+        <v>0.0287</v>
       </c>
       <c r="T43">
-        <v>4.2599999999999999E-2</v>
+        <v>0.0426</v>
       </c>
       <c r="U43">
-        <v>0.14369999999999999</v>
+        <v>0.1437</v>
       </c>
       <c r="V43">
-        <v>4.82E-2</v>
+        <v>0.0482</v>
       </c>
       <c r="W43">
         <v>1</v>
@@ -6612,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46">
       <c r="A44">
         <v>1</v>
       </c>
@@ -6644,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="L44">
         <v>335</v>
@@ -6653,31 +6576,31 @@
         <v>6</v>
       </c>
       <c r="N44">
-        <v>0.34029999999999999</v>
+        <v>0.3403</v>
       </c>
       <c r="O44">
         <v>0.1045</v>
       </c>
       <c r="P44">
-        <v>7.7600000000000002E-2</v>
+        <v>0.0776</v>
       </c>
       <c r="Q44">
-        <v>7.7600000000000002E-2</v>
+        <v>0.0776</v>
       </c>
       <c r="R44">
         <v>0.1731</v>
       </c>
       <c r="S44">
-        <v>2.69E-2</v>
+        <v>0.0269</v>
       </c>
       <c r="T44">
-        <v>3.2800000000000003E-2</v>
+        <v>0.0328</v>
       </c>
       <c r="U44">
-        <v>0.14630000000000001</v>
+        <v>0.1463</v>
       </c>
       <c r="V44">
-        <v>2.3900000000000001E-2</v>
+        <v>0.0239</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -6752,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46">
       <c r="A45">
         <v>1</v>
       </c>
@@ -6784,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="L45">
         <v>583</v>
@@ -6793,31 +6716,31 @@
         <v>11</v>
       </c>
       <c r="N45">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="O45">
-        <v>9.2600000000000002E-2</v>
+        <v>0.0926</v>
       </c>
       <c r="P45">
         <v>0.1338</v>
       </c>
       <c r="Q45">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="R45">
         <v>0.1389</v>
       </c>
       <c r="S45">
-        <v>4.2900000000000001E-2</v>
+        <v>0.0429</v>
       </c>
       <c r="T45">
-        <v>4.2900000000000001E-2</v>
+        <v>0.0429</v>
       </c>
       <c r="U45">
-        <v>0.14069999999999999</v>
+        <v>0.1407</v>
       </c>
       <c r="V45">
-        <v>3.3999999999999998E-3</v>
+        <v>0.0034</v>
       </c>
       <c r="W45">
         <v>1</v>
@@ -6892,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46">
       <c r="A46">
         <v>1</v>
       </c>
@@ -6924,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="L46">
         <v>511</v>
@@ -6933,31 +6856,31 @@
         <v>8</v>
       </c>
       <c r="N46">
-        <v>0.29160000000000003</v>
+        <v>0.2916</v>
       </c>
       <c r="O46">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="P46">
         <v>0.1429</v>
       </c>
       <c r="Q46">
-        <v>7.2400000000000006E-2</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="R46">
-        <v>0.17219999999999999</v>
+        <v>0.1722</v>
       </c>
       <c r="S46">
-        <v>2.7400000000000001E-2</v>
+        <v>0.0274</v>
       </c>
       <c r="T46">
-        <v>5.4800000000000001E-2</v>
+        <v>0.0548</v>
       </c>
       <c r="U46">
-        <v>9.1999999999999998E-2</v>
+        <v>0.092</v>
       </c>
       <c r="V46">
-        <v>1.5699999999999999E-2</v>
+        <v>0.0157</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -7032,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7064,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="L47">
         <v>668</v>
@@ -7076,28 +6999,28 @@
         <v>0.253</v>
       </c>
       <c r="O47">
-        <v>5.3900000000000003E-2</v>
+        <v>0.0539</v>
       </c>
       <c r="P47">
-        <v>0.16619999999999999</v>
+        <v>0.1662</v>
       </c>
       <c r="Q47">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="R47">
-        <v>0.13769999999999999</v>
+        <v>0.1377</v>
       </c>
       <c r="S47">
-        <v>4.19E-2</v>
+        <v>0.0419</v>
       </c>
       <c r="T47">
-        <v>8.6800000000000002E-2</v>
+        <v>0.0868</v>
       </c>
       <c r="U47">
-        <v>8.8300000000000003E-2</v>
+        <v>0.0883</v>
       </c>
       <c r="V47">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -7172,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46">
       <c r="A48">
         <v>1</v>
       </c>
@@ -7204,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="L48">
         <v>1031</v>
@@ -7213,10 +7136,10 @@
         <v>35</v>
       </c>
       <c r="N48">
-        <v>0.33950000000000002</v>
+        <v>0.3395</v>
       </c>
       <c r="O48">
-        <v>5.5300000000000002E-2</v>
+        <v>0.0553</v>
       </c>
       <c r="P48">
         <v>0.1038</v>
@@ -7228,16 +7151,16 @@
         <v>0.1804</v>
       </c>
       <c r="S48">
-        <v>2.7199999999999998E-2</v>
+        <v>0.0272</v>
       </c>
       <c r="T48">
-        <v>4.9500000000000002E-2</v>
+        <v>0.0495</v>
       </c>
       <c r="U48">
-        <v>0.12609999999999999</v>
+        <v>0.1261</v>
       </c>
       <c r="V48">
-        <v>2.9100000000000001E-2</v>
+        <v>0.0291</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -7312,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46">
       <c r="A49">
         <v>1</v>
       </c>
@@ -7344,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="L49">
         <v>631</v>
@@ -7353,31 +7276,31 @@
         <v>11</v>
       </c>
       <c r="N49">
-        <v>0.34389999999999998</v>
+        <v>0.3439</v>
       </c>
       <c r="O49">
-        <v>9.1899999999999996E-2</v>
+        <v>0.0919</v>
       </c>
       <c r="P49">
-        <v>8.72E-2</v>
+        <v>0.0872</v>
       </c>
       <c r="Q49">
-        <v>4.7500000000000001E-2</v>
+        <v>0.0475</v>
       </c>
       <c r="R49">
-        <v>0.15529999999999999</v>
+        <v>0.1553</v>
       </c>
       <c r="S49">
-        <v>5.3900000000000003E-2</v>
+        <v>0.0539</v>
       </c>
       <c r="T49">
-        <v>4.9099999999999998E-2</v>
+        <v>0.0491</v>
       </c>
       <c r="U49">
         <v>0.1474</v>
       </c>
       <c r="V49">
-        <v>2.2200000000000001E-2</v>
+        <v>0.0222</v>
       </c>
       <c r="W49">
         <v>1</v>
@@ -7452,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46">
       <c r="A50">
         <v>1</v>
       </c>
@@ -7484,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="L50">
         <v>348</v>
@@ -7493,31 +7416,31 @@
         <v>11</v>
       </c>
       <c r="N50">
-        <v>0.35339999999999999</v>
+        <v>0.3534</v>
       </c>
       <c r="O50">
-        <v>7.1800000000000003E-2</v>
+        <v>0.0718</v>
       </c>
       <c r="P50">
-        <v>0.10059999999999999</v>
+        <v>0.1006</v>
       </c>
       <c r="Q50">
-        <v>8.0500000000000002E-2</v>
+        <v>0.0805</v>
       </c>
       <c r="R50">
         <v>0.2011</v>
       </c>
       <c r="S50">
-        <v>3.7400000000000003E-2</v>
+        <v>0.0374</v>
       </c>
       <c r="T50">
-        <v>3.4500000000000003E-2</v>
+        <v>0.0345</v>
       </c>
       <c r="U50">
-        <v>0.10920000000000001</v>
+        <v>0.1092</v>
       </c>
       <c r="V50">
-        <v>1.15E-2</v>
+        <v>0.0115</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -7592,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46">
       <c r="A51">
         <v>0</v>
       </c>
@@ -7624,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L51">
         <v>678</v>
@@ -7633,31 +7556,31 @@
         <v>11</v>
       </c>
       <c r="N51">
-        <v>0.26250000000000001</v>
+        <v>0.2625</v>
       </c>
       <c r="O51">
-        <v>9.2899999999999996E-2</v>
+        <v>0.0929</v>
       </c>
       <c r="P51">
         <v>0.1313</v>
       </c>
       <c r="Q51">
-        <v>1.9199999999999998E-2</v>
+        <v>0.0192</v>
       </c>
       <c r="R51">
         <v>0.1681</v>
       </c>
       <c r="S51">
-        <v>3.8300000000000001E-2</v>
+        <v>0.0383</v>
       </c>
       <c r="T51">
-        <v>6.4899999999999999E-2</v>
+        <v>0.0649</v>
       </c>
       <c r="U51">
-        <v>9.8799999999999999E-2</v>
+        <v>0.0988</v>
       </c>
       <c r="V51">
-        <v>2.8999999999999998E-3</v>
+        <v>0.0029</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -7732,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46">
       <c r="A52">
         <v>1</v>
       </c>
@@ -7764,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="L52">
         <v>342</v>
@@ -7773,31 +7696,31 @@
         <v>8</v>
       </c>
       <c r="N52">
-        <v>0.33629999999999999</v>
+        <v>0.3363</v>
       </c>
       <c r="O52">
         <v>0.1111</v>
       </c>
       <c r="P52">
-        <v>8.1900000000000001E-2</v>
+        <v>0.0819</v>
       </c>
       <c r="Q52">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="R52">
         <v>0.1988</v>
       </c>
       <c r="S52">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="T52">
-        <v>6.1400000000000003E-2</v>
+        <v>0.0614</v>
       </c>
       <c r="U52">
-        <v>9.06E-2</v>
+        <v>0.0906</v>
       </c>
       <c r="V52">
-        <v>8.8000000000000005E-3</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="W52">
         <v>1</v>
@@ -7872,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46">
       <c r="A53">
         <v>1</v>
       </c>
@@ -7904,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L53">
         <v>855</v>
@@ -7916,28 +7839,28 @@
         <v>0.3977</v>
       </c>
       <c r="O53">
-        <v>7.4899999999999994E-2</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="P53">
-        <v>9.5899999999999999E-2</v>
+        <v>0.0959</v>
       </c>
       <c r="Q53">
         <v>0.1368</v>
       </c>
       <c r="R53">
-        <v>0.20349999999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="S53">
-        <v>4.4400000000000002E-2</v>
+        <v>0.0444</v>
       </c>
       <c r="T53">
-        <v>1.52E-2</v>
+        <v>0.0152</v>
       </c>
       <c r="U53">
         <v>0.1076</v>
       </c>
       <c r="V53">
-        <v>1.29E-2</v>
+        <v>0.0129</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -8012,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46">
       <c r="A54">
         <v>1</v>
       </c>
@@ -8044,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>1246</v>
+        <v>1261</v>
       </c>
       <c r="L54">
         <v>768</v>
@@ -8053,31 +7976,31 @@
         <v>19</v>
       </c>
       <c r="N54">
-        <v>0.35289999999999999</v>
+        <v>0.3529</v>
       </c>
       <c r="O54">
         <v>0.1042</v>
       </c>
       <c r="P54">
-        <v>9.9000000000000005E-2</v>
+        <v>0.099</v>
       </c>
       <c r="Q54">
-        <v>3.9100000000000003E-2</v>
+        <v>0.0391</v>
       </c>
       <c r="R54">
         <v>0.1419</v>
       </c>
       <c r="S54">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="T54">
-        <v>3.1199999999999999E-2</v>
+        <v>0.0312</v>
       </c>
       <c r="U54">
-        <v>0.14449999999999999</v>
+        <v>0.1445</v>
       </c>
       <c r="V54">
-        <v>6.4999999999999997E-3</v>
+        <v>0.0065</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -8089,7 +8012,7 @@
         <v>28</v>
       </c>
       <c r="Z54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA54">
         <v>568</v>
@@ -8152,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46">
       <c r="A55">
         <v>1</v>
       </c>
@@ -8184,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="L55">
         <v>913</v>
@@ -8193,31 +8116,31 @@
         <v>16</v>
       </c>
       <c r="N55">
-        <v>0.37130000000000002</v>
+        <v>0.3713</v>
       </c>
       <c r="O55">
-        <v>7.6700000000000004E-2</v>
+        <v>0.0767</v>
       </c>
       <c r="P55">
-        <v>7.5600000000000001E-2</v>
+        <v>0.0756</v>
       </c>
       <c r="Q55">
-        <v>0.13139999999999999</v>
+        <v>0.1314</v>
       </c>
       <c r="R55">
-        <v>0.22450000000000001</v>
+        <v>0.2245</v>
       </c>
       <c r="S55">
-        <v>4.7100000000000003E-2</v>
+        <v>0.0471</v>
       </c>
       <c r="T55">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="U55">
         <v>0.115</v>
       </c>
       <c r="V55">
-        <v>1.6400000000000001E-2</v>
+        <v>0.0164</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -8292,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46">
       <c r="A56">
         <v>1</v>
       </c>
@@ -8324,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L56">
         <v>515</v>
@@ -8333,31 +8256,31 @@
         <v>15</v>
       </c>
       <c r="N56">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="O56">
-        <v>6.9900000000000004E-2</v>
+        <v>0.0699</v>
       </c>
       <c r="P56">
-        <v>0.10290000000000001</v>
+        <v>0.1029</v>
       </c>
       <c r="Q56">
-        <v>0.12429999999999999</v>
+        <v>0.1243</v>
       </c>
       <c r="R56">
         <v>0.1845</v>
       </c>
       <c r="S56">
-        <v>3.8800000000000001E-2</v>
+        <v>0.0388</v>
       </c>
       <c r="T56">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="U56">
-        <v>0.11650000000000001</v>
+        <v>0.1165</v>
       </c>
       <c r="V56">
-        <v>1.9E-3</v>
+        <v>0.0019</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -8432,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46">
       <c r="A57">
         <v>1</v>
       </c>
@@ -8464,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="L57">
         <v>327</v>
@@ -8473,31 +8396,31 @@
         <v>11</v>
       </c>
       <c r="N57">
-        <v>0.30890000000000001</v>
+        <v>0.3089</v>
       </c>
       <c r="O57">
-        <v>0.12230000000000001</v>
+        <v>0.1223</v>
       </c>
       <c r="P57">
-        <v>0.12230000000000001</v>
+        <v>0.1223</v>
       </c>
       <c r="Q57">
-        <v>2.4500000000000001E-2</v>
+        <v>0.0245</v>
       </c>
       <c r="R57">
-        <v>0.17130000000000001</v>
+        <v>0.1713</v>
       </c>
       <c r="S57">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="T57">
-        <v>3.9800000000000002E-2</v>
+        <v>0.0398</v>
       </c>
       <c r="U57">
-        <v>9.4799999999999995E-2</v>
+        <v>0.0948</v>
       </c>
       <c r="V57">
-        <v>3.0999999999999999E-3</v>
+        <v>0.0031</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -8572,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46">
       <c r="A58">
         <v>1</v>
       </c>
@@ -8604,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L58">
         <v>389</v>
@@ -8613,25 +8536,25 @@
         <v>12</v>
       </c>
       <c r="N58">
-        <v>0.29559999999999997</v>
+        <v>0.2956</v>
       </c>
       <c r="O58">
-        <v>8.2299999999999998E-2</v>
+        <v>0.0823</v>
       </c>
       <c r="P58">
-        <v>0.14399999999999999</v>
+        <v>0.144</v>
       </c>
       <c r="Q58">
-        <v>4.3700000000000003E-2</v>
+        <v>0.0437</v>
       </c>
       <c r="R58">
         <v>0.126</v>
       </c>
       <c r="S58">
-        <v>3.8600000000000002E-2</v>
+        <v>0.0386</v>
       </c>
       <c r="T58">
-        <v>8.2299999999999998E-2</v>
+        <v>0.0823</v>
       </c>
       <c r="U58">
         <v>0.1208</v>
@@ -8712,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46">
       <c r="A59">
         <v>0</v>
       </c>
@@ -8744,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="K59">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L59">
         <v>1702</v>
@@ -8753,31 +8676,31 @@
         <v>24</v>
       </c>
       <c r="N59">
-        <v>0.28670000000000001</v>
+        <v>0.2867</v>
       </c>
       <c r="O59">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="P59">
         <v>0.1099</v>
       </c>
       <c r="Q59">
-        <v>6.8199999999999997E-2</v>
+        <v>0.0682</v>
       </c>
       <c r="R59">
-        <v>0.15859999999999999</v>
+        <v>0.1586</v>
       </c>
       <c r="S59">
-        <v>4.7600000000000003E-2</v>
+        <v>0.0476</v>
       </c>
       <c r="T59">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
       <c r="U59">
         <v>0.1157</v>
       </c>
       <c r="V59">
-        <v>3.5299999999999998E-2</v>
+        <v>0.0353</v>
       </c>
       <c r="W59">
         <v>1</v>
@@ -8789,7 +8712,7 @@
         <v>26</v>
       </c>
       <c r="Z59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA59">
         <v>529</v>
@@ -8852,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46">
       <c r="A60">
         <v>1</v>
       </c>
@@ -8884,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="L60">
         <v>1153</v>
@@ -8893,31 +8816,31 @@
         <v>17</v>
       </c>
       <c r="N60">
-        <v>0.26629999999999998</v>
+        <v>0.2663</v>
       </c>
       <c r="O60">
-        <v>7.2900000000000006E-2</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="P60">
-        <v>0.12920000000000001</v>
+        <v>0.1292</v>
       </c>
       <c r="Q60">
-        <v>2.3400000000000001E-2</v>
+        <v>0.0234</v>
       </c>
       <c r="R60">
-        <v>0.16739999999999999</v>
+        <v>0.1674</v>
       </c>
       <c r="S60">
-        <v>5.0299999999999997E-2</v>
+        <v>0.0503</v>
       </c>
       <c r="T60">
-        <v>5.5500000000000001E-2</v>
+        <v>0.0555</v>
       </c>
       <c r="U60">
-        <v>9.7100000000000006E-2</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="V60">
-        <v>2.5999999999999999E-3</v>
+        <v>0.0026</v>
       </c>
       <c r="W60">
         <v>1</v>
@@ -8992,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46">
       <c r="A61">
         <v>1</v>
       </c>
@@ -9024,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="K61">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="L61">
         <v>1124</v>
@@ -9033,22 +8956,22 @@
         <v>15</v>
       </c>
       <c r="N61">
-        <v>0.31580000000000003</v>
+        <v>0.3158</v>
       </c>
       <c r="O61">
-        <v>6.4899999999999999E-2</v>
+        <v>0.0649</v>
       </c>
       <c r="P61">
         <v>0.1326</v>
       </c>
       <c r="Q61">
-        <v>0.11119999999999999</v>
+        <v>0.1112</v>
       </c>
       <c r="R61">
-        <v>0.16639999999999999</v>
+        <v>0.1664</v>
       </c>
       <c r="S61">
-        <v>4.7199999999999999E-2</v>
+        <v>0.0472</v>
       </c>
       <c r="T61">
         <v>0.04</v>
@@ -9057,7 +8980,7 @@
         <v>0.1094</v>
       </c>
       <c r="V61">
-        <v>2.3099999999999999E-2</v>
+        <v>0.0231</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -9132,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46">
       <c r="A62">
         <v>1</v>
       </c>
@@ -9164,7 +9087,7 @@
         <v>1</v>
       </c>
       <c r="K62">
-        <v>1439</v>
+        <v>1453</v>
       </c>
       <c r="L62">
         <v>758</v>
@@ -9173,31 +9096,31 @@
         <v>13</v>
       </c>
       <c r="N62">
-        <v>0.28889999999999999</v>
+        <v>0.2889</v>
       </c>
       <c r="O62">
-        <v>9.8900000000000002E-2</v>
+        <v>0.0989</v>
       </c>
       <c r="P62">
         <v>0.1082</v>
       </c>
       <c r="Q62">
-        <v>3.56E-2</v>
+        <v>0.0356</v>
       </c>
       <c r="R62">
-        <v>0.20580000000000001</v>
+        <v>0.2058</v>
       </c>
       <c r="S62">
-        <v>3.4299999999999997E-2</v>
+        <v>0.0343</v>
       </c>
       <c r="T62">
-        <v>4.2200000000000001E-2</v>
+        <v>0.0422</v>
       </c>
       <c r="U62">
         <v>0.1003</v>
       </c>
       <c r="V62">
-        <v>1.32E-2</v>
+        <v>0.0132</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -9272,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46">
       <c r="A63">
         <v>1</v>
       </c>
@@ -9304,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L63">
         <v>947</v>
@@ -9316,28 +9239,28 @@
         <v>0.32</v>
       </c>
       <c r="O63">
-        <v>6.5500000000000003E-2</v>
+        <v>0.0655</v>
       </c>
       <c r="P63">
         <v>0.1014</v>
       </c>
       <c r="Q63">
-        <v>7.2900000000000006E-2</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="R63">
-        <v>0.16370000000000001</v>
+        <v>0.1637</v>
       </c>
       <c r="S63">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="T63">
-        <v>6.2300000000000001E-2</v>
+        <v>0.0623</v>
       </c>
       <c r="U63">
-        <v>0.14779999999999999</v>
+        <v>0.1478</v>
       </c>
       <c r="V63">
-        <v>1.4800000000000001E-2</v>
+        <v>0.0148</v>
       </c>
       <c r="W63">
         <v>0</v>
@@ -9412,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46">
       <c r="A64">
         <v>1</v>
       </c>
@@ -9444,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="K64">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L64">
         <v>392</v>
@@ -9453,31 +9376,31 @@
         <v>6</v>
       </c>
       <c r="N64">
-        <v>0.30609999999999998</v>
+        <v>0.3061</v>
       </c>
       <c r="O64">
-        <v>6.1199999999999997E-2</v>
+        <v>0.0612</v>
       </c>
       <c r="P64">
-        <v>0.13780000000000001</v>
+        <v>0.1378</v>
       </c>
       <c r="Q64">
-        <v>2.0400000000000001E-2</v>
+        <v>0.0204</v>
       </c>
       <c r="R64">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="S64">
-        <v>5.6099999999999997E-2</v>
+        <v>0.0561</v>
       </c>
       <c r="T64">
-        <v>6.6299999999999998E-2</v>
+        <v>0.0663</v>
       </c>
       <c r="U64">
-        <v>9.9500000000000005E-2</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="V64">
-        <v>2.5499999999999998E-2</v>
+        <v>0.0255</v>
       </c>
       <c r="W64">
         <v>0</v>
@@ -9489,7 +9412,7 @@
         <v>53</v>
       </c>
       <c r="Z64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA64">
         <v>505</v>
@@ -9552,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46">
       <c r="A65">
         <v>1</v>
       </c>
@@ -9584,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="K65">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L65">
         <v>1324</v>
@@ -9596,28 +9519,28 @@
         <v>0.2636</v>
       </c>
       <c r="O65">
-        <v>5.74E-2</v>
+        <v>0.0574</v>
       </c>
       <c r="P65">
-        <v>0.13439999999999999</v>
+        <v>0.1344</v>
       </c>
       <c r="Q65">
         <v>0.04</v>
       </c>
       <c r="R65">
-        <v>0.14649999999999999</v>
+        <v>0.1465</v>
       </c>
       <c r="S65">
-        <v>4.3799999999999999E-2</v>
+        <v>0.0438</v>
       </c>
       <c r="T65">
-        <v>7.0999999999999994E-2</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="U65">
         <v>0.1246</v>
       </c>
       <c r="V65">
-        <v>2.1100000000000001E-2</v>
+        <v>0.0211</v>
       </c>
       <c r="W65">
         <v>1</v>
@@ -9692,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46">
       <c r="A66">
         <v>1</v>
       </c>
@@ -9724,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="K66">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L66">
         <v>810</v>
@@ -9736,28 +9659,28 @@
         <v>0.3049</v>
       </c>
       <c r="O66">
-        <v>6.6699999999999995E-2</v>
+        <v>0.0667</v>
       </c>
       <c r="P66">
         <v>0.1111</v>
       </c>
       <c r="Q66">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="R66">
-        <v>0.18149999999999999</v>
+        <v>0.1815</v>
       </c>
       <c r="S66">
-        <v>3.95E-2</v>
+        <v>0.0395</v>
       </c>
       <c r="T66">
-        <v>6.0499999999999998E-2</v>
+        <v>0.0605</v>
       </c>
       <c r="U66">
-        <v>0.12470000000000001</v>
+        <v>0.1247</v>
       </c>
       <c r="V66">
-        <v>7.4000000000000003E-3</v>
+        <v>0.0074</v>
       </c>
       <c r="W66">
         <v>0</v>
@@ -9832,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46">
       <c r="A67">
         <v>1</v>
       </c>
@@ -9864,7 +9787,7 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="L67">
         <v>851</v>
@@ -9873,28 +9796,28 @@
         <v>10</v>
       </c>
       <c r="N67">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="O67">
-        <v>6.4600000000000005E-2</v>
+        <v>0.0646</v>
       </c>
       <c r="P67">
-        <v>8.3400000000000002E-2</v>
+        <v>0.0834</v>
       </c>
       <c r="Q67">
-        <v>6.2300000000000001E-2</v>
+        <v>0.0623</v>
       </c>
       <c r="R67">
-        <v>0.16919999999999999</v>
+        <v>0.1692</v>
       </c>
       <c r="S67">
-        <v>4.58E-2</v>
+        <v>0.0458</v>
       </c>
       <c r="T67">
-        <v>3.2899999999999999E-2</v>
+        <v>0.0329</v>
       </c>
       <c r="U67">
-        <v>0.15040000000000001</v>
+        <v>0.1504</v>
       </c>
       <c r="V67">
         <v>0.04</v>
@@ -9972,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46">
       <c r="A68">
         <v>1</v>
       </c>
@@ -10004,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="K68">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L68">
         <v>816</v>
@@ -10013,31 +9936,31 @@
         <v>10</v>
       </c>
       <c r="N68">
-        <v>0.27939999999999998</v>
+        <v>0.2794</v>
       </c>
       <c r="O68">
-        <v>5.5100000000000003E-2</v>
+        <v>0.0551</v>
       </c>
       <c r="P68">
-        <v>0.13730000000000001</v>
+        <v>0.1373</v>
       </c>
       <c r="Q68">
-        <v>1.35E-2</v>
+        <v>0.0135</v>
       </c>
       <c r="R68">
-        <v>0.16420000000000001</v>
+        <v>0.1642</v>
       </c>
       <c r="S68">
-        <v>5.1499999999999997E-2</v>
+        <v>0.0515</v>
       </c>
       <c r="T68">
-        <v>8.5800000000000001E-2</v>
+        <v>0.0858</v>
       </c>
       <c r="U68">
-        <v>7.4800000000000005E-2</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="V68">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -10112,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46">
       <c r="A69">
         <v>1</v>
       </c>
@@ -10144,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="L69">
         <v>472</v>
@@ -10153,31 +10076,31 @@
         <v>7</v>
       </c>
       <c r="N69">
-        <v>0.29239999999999999</v>
+        <v>0.2924</v>
       </c>
       <c r="O69">
-        <v>6.7799999999999999E-2</v>
+        <v>0.0678</v>
       </c>
       <c r="P69">
-        <v>0.15679999999999999</v>
+        <v>0.1568</v>
       </c>
       <c r="Q69">
-        <v>1.06E-2</v>
+        <v>0.0106</v>
       </c>
       <c r="R69">
         <v>0.161</v>
       </c>
       <c r="S69">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="T69">
-        <v>6.1400000000000003E-2</v>
+        <v>0.0614</v>
       </c>
       <c r="U69">
         <v>0.1038</v>
       </c>
       <c r="V69">
-        <v>1.06E-2</v>
+        <v>0.0106</v>
       </c>
       <c r="W69">
         <v>1</v>
@@ -10252,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46">
       <c r="A70">
         <v>0</v>
       </c>
@@ -10284,7 +10207,7 @@
         <v>1</v>
       </c>
       <c r="K70">
-        <v>999</v>
+        <v>1024</v>
       </c>
       <c r="L70">
         <v>697</v>
@@ -10299,25 +10222,25 @@
         <v>0.1033</v>
       </c>
       <c r="P70">
-        <v>9.1800000000000007E-2</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="Q70">
-        <v>2.87E-2</v>
+        <v>0.0287</v>
       </c>
       <c r="R70">
-        <v>0.15060000000000001</v>
+        <v>0.1506</v>
       </c>
       <c r="S70">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="T70">
-        <v>6.0299999999999999E-2</v>
+        <v>0.0603</v>
       </c>
       <c r="U70">
-        <v>0.14630000000000001</v>
+        <v>0.1463</v>
       </c>
       <c r="V70">
-        <v>1.15E-2</v>
+        <v>0.0115</v>
       </c>
       <c r="W70">
         <v>0</v>
@@ -10392,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46">
       <c r="A71">
         <v>1</v>
       </c>
@@ -10424,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>1237</v>
+        <v>1257</v>
       </c>
       <c r="L71">
         <v>367</v>
@@ -10433,31 +10356,31 @@
         <v>7</v>
       </c>
       <c r="N71">
-        <v>0.29430000000000001</v>
+        <v>0.2943</v>
       </c>
       <c r="O71">
-        <v>5.9900000000000002E-2</v>
+        <v>0.0599</v>
       </c>
       <c r="P71">
-        <v>0.13350000000000001</v>
+        <v>0.1335</v>
       </c>
       <c r="Q71">
-        <v>1.09E-2</v>
+        <v>0.0109</v>
       </c>
       <c r="R71">
-        <v>0.16619999999999999</v>
+        <v>0.1662</v>
       </c>
       <c r="S71">
-        <v>4.0899999999999999E-2</v>
+        <v>0.0409</v>
       </c>
       <c r="T71">
-        <v>7.0800000000000002E-2</v>
+        <v>0.0708</v>
       </c>
       <c r="U71">
-        <v>9.8100000000000007E-2</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="V71">
-        <v>1.09E-2</v>
+        <v>0.0109</v>
       </c>
       <c r="W71">
         <v>1</v>
@@ -10532,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46">
       <c r="A72">
         <v>1</v>
       </c>
@@ -10564,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="K72">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="L72">
         <v>406</v>
@@ -10573,31 +10496,31 @@
         <v>7</v>
       </c>
       <c r="N72">
-        <v>0.30049999999999999</v>
+        <v>0.3005</v>
       </c>
       <c r="O72">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="P72">
-        <v>0.15759999999999999</v>
+        <v>0.1576</v>
       </c>
       <c r="Q72">
-        <v>2.2200000000000001E-2</v>
+        <v>0.0222</v>
       </c>
       <c r="R72">
         <v>0.1404</v>
       </c>
       <c r="S72">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="T72">
-        <v>7.1400000000000005E-2</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="U72">
-        <v>0.10100000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="V72">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="W72">
         <v>1</v>
@@ -10672,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46">
       <c r="A73">
         <v>1</v>
       </c>
@@ -10704,7 +10627,7 @@
         <v>1</v>
       </c>
       <c r="K73">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L73">
         <v>613</v>
@@ -10713,31 +10636,31 @@
         <v>14</v>
       </c>
       <c r="N73">
-        <v>0.30020000000000002</v>
+        <v>0.3002</v>
       </c>
       <c r="O73">
-        <v>5.3800000000000001E-2</v>
+        <v>0.0538</v>
       </c>
       <c r="P73">
         <v>0.1338</v>
       </c>
       <c r="Q73">
-        <v>5.3800000000000001E-2</v>
+        <v>0.0538</v>
       </c>
       <c r="R73">
-        <v>0.16309999999999999</v>
+        <v>0.1631</v>
       </c>
       <c r="S73">
-        <v>3.2599999999999997E-2</v>
+        <v>0.0326</v>
       </c>
       <c r="T73">
-        <v>5.3800000000000001E-2</v>
+        <v>0.0538</v>
       </c>
       <c r="U73">
         <v>0.1028</v>
       </c>
       <c r="V73">
-        <v>1.47E-2</v>
+        <v>0.0147</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -10812,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46">
       <c r="A74">
         <v>1</v>
       </c>
@@ -10844,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="K74">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L74">
         <v>973</v>
@@ -10853,31 +10776,31 @@
         <v>17</v>
       </c>
       <c r="N74">
-        <v>0.30940000000000001</v>
+        <v>0.3094</v>
       </c>
       <c r="O74">
-        <v>5.2400000000000002E-2</v>
+        <v>0.0524</v>
       </c>
       <c r="P74">
-        <v>0.11609999999999999</v>
+        <v>0.1161</v>
       </c>
       <c r="Q74">
-        <v>9.5600000000000004E-2</v>
+        <v>0.0956</v>
       </c>
       <c r="R74">
-        <v>0.17780000000000001</v>
+        <v>0.1778</v>
       </c>
       <c r="S74">
-        <v>2.98E-2</v>
+        <v>0.0298</v>
       </c>
       <c r="T74">
-        <v>7.1900000000000006E-2</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="U74">
-        <v>0.12540000000000001</v>
+        <v>0.1254</v>
       </c>
       <c r="V74">
-        <v>2.5700000000000001E-2</v>
+        <v>0.0257</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -10952,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46">
       <c r="A75">
         <v>1</v>
       </c>
@@ -10984,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L75">
         <v>737</v>
@@ -10993,31 +10916,31 @@
         <v>15</v>
       </c>
       <c r="N75">
-        <v>0.32290000000000002</v>
+        <v>0.3229</v>
       </c>
       <c r="O75">
-        <v>5.8299999999999998E-2</v>
+        <v>0.0583</v>
       </c>
       <c r="P75">
-        <v>0.11940000000000001</v>
+        <v>0.1194</v>
       </c>
       <c r="Q75">
-        <v>9.3600000000000003E-2</v>
+        <v>0.0936</v>
       </c>
       <c r="R75">
-        <v>0.16420000000000001</v>
+        <v>0.1642</v>
       </c>
       <c r="S75">
-        <v>4.3400000000000001E-2</v>
+        <v>0.0434</v>
       </c>
       <c r="T75">
-        <v>5.4300000000000001E-2</v>
+        <v>0.0543</v>
       </c>
       <c r="U75">
         <v>0.1004</v>
       </c>
       <c r="V75">
-        <v>1.6299999999999999E-2</v>
+        <v>0.0163</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -11092,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46">
       <c r="A76">
         <v>1</v>
       </c>
@@ -11124,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L76">
         <v>576</v>
@@ -11133,31 +11056,31 @@
         <v>9</v>
       </c>
       <c r="N76">
-        <v>0.32290000000000002</v>
+        <v>0.3229</v>
       </c>
       <c r="O76">
-        <v>8.8499999999999995E-2</v>
+        <v>0.0885</v>
       </c>
       <c r="P76">
-        <v>0.13719999999999999</v>
+        <v>0.1372</v>
       </c>
       <c r="Q76">
-        <v>4.1700000000000001E-2</v>
+        <v>0.0417</v>
       </c>
       <c r="R76">
-        <v>0.13189999999999999</v>
+        <v>0.1319</v>
       </c>
       <c r="S76">
-        <v>4.6899999999999997E-2</v>
+        <v>0.0469</v>
       </c>
       <c r="T76">
-        <v>4.6899999999999997E-2</v>
+        <v>0.0469</v>
       </c>
       <c r="U76">
-        <v>0.13539999999999999</v>
+        <v>0.1354</v>
       </c>
       <c r="V76">
-        <v>1.6999999999999999E-3</v>
+        <v>0.0017</v>
       </c>
       <c r="W76">
         <v>0</v>
@@ -11232,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46">
       <c r="A77">
         <v>1</v>
       </c>
@@ -11264,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L77">
         <v>1228</v>
@@ -11273,31 +11196,31 @@
         <v>20</v>
       </c>
       <c r="N77">
-        <v>0.37790000000000001</v>
+        <v>0.3779</v>
       </c>
       <c r="O77">
-        <v>5.8599999999999999E-2</v>
+        <v>0.0586</v>
       </c>
       <c r="P77">
-        <v>0.10829999999999999</v>
+        <v>0.1083</v>
       </c>
       <c r="Q77">
         <v>0.1726</v>
       </c>
       <c r="R77">
-        <v>0.19789999999999999</v>
+        <v>0.1979</v>
       </c>
       <c r="S77">
-        <v>5.21E-2</v>
+        <v>0.0521</v>
       </c>
       <c r="T77">
-        <v>3.09E-2</v>
+        <v>0.0309</v>
       </c>
       <c r="U77">
-        <v>0.11070000000000001</v>
+        <v>0.1107</v>
       </c>
       <c r="V77">
-        <v>8.9999999999999993E-3</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -11372,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46">
       <c r="A78">
         <v>1</v>
       </c>
@@ -11404,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="K78">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="L78">
         <v>1441</v>
@@ -11413,31 +11336,31 @@
         <v>24</v>
       </c>
       <c r="N78">
-        <v>0.30459999999999998</v>
+        <v>0.3046</v>
       </c>
       <c r="O78">
-        <v>8.4000000000000005E-2</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="P78">
-        <v>0.10829999999999999</v>
+        <v>0.1083</v>
       </c>
       <c r="Q78">
-        <v>6.0400000000000002E-2</v>
+        <v>0.0604</v>
       </c>
       <c r="R78">
-        <v>0.15060000000000001</v>
+        <v>0.1506</v>
       </c>
       <c r="S78">
-        <v>4.2299999999999997E-2</v>
+        <v>0.0423</v>
       </c>
       <c r="T78">
-        <v>6.1800000000000001E-2</v>
+        <v>0.0618</v>
       </c>
       <c r="U78">
         <v>0.1145</v>
       </c>
       <c r="V78">
-        <v>2.7099999999999999E-2</v>
+        <v>0.0271</v>
       </c>
       <c r="W78">
         <v>1</v>
@@ -11512,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46">
       <c r="A79">
         <v>1</v>
       </c>
@@ -11544,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="L79">
         <v>1252</v>
@@ -11553,31 +11476,31 @@
         <v>14</v>
       </c>
       <c r="N79">
-        <v>0.25640000000000002</v>
+        <v>0.2564</v>
       </c>
       <c r="O79">
         <v>0.1062</v>
       </c>
       <c r="P79">
-        <v>0.12939999999999999</v>
+        <v>0.1294</v>
       </c>
       <c r="Q79">
-        <v>4.6300000000000001E-2</v>
+        <v>0.0463</v>
       </c>
       <c r="R79">
-        <v>0.17330000000000001</v>
+        <v>0.1733</v>
       </c>
       <c r="S79">
-        <v>3.1199999999999999E-2</v>
+        <v>0.0312</v>
       </c>
       <c r="T79">
-        <v>7.7499999999999999E-2</v>
+        <v>0.0775</v>
       </c>
       <c r="U79">
-        <v>8.9499999999999996E-2</v>
+        <v>0.0895</v>
       </c>
       <c r="V79">
-        <v>9.5999999999999992E-3</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="W79">
         <v>1</v>
@@ -11652,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46">
       <c r="A80">
         <v>1</v>
       </c>
@@ -11684,7 +11607,7 @@
         <v>1</v>
       </c>
       <c r="K80">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="L80">
         <v>1249</v>
@@ -11693,10 +11616,10 @@
         <v>20</v>
       </c>
       <c r="N80">
-        <v>0.31950000000000001</v>
+        <v>0.3195</v>
       </c>
       <c r="O80">
-        <v>6.8900000000000003E-2</v>
+        <v>0.0689</v>
       </c>
       <c r="P80">
         <v>0.1065</v>
@@ -11705,19 +11628,19 @@
         <v>0.1729</v>
       </c>
       <c r="R80">
-        <v>0.15690000000000001</v>
+        <v>0.1569</v>
       </c>
       <c r="S80">
-        <v>3.44E-2</v>
+        <v>0.0344</v>
       </c>
       <c r="T80">
-        <v>4.6399999999999997E-2</v>
+        <v>0.0464</v>
       </c>
       <c r="U80">
-        <v>0.12330000000000001</v>
+        <v>0.1233</v>
       </c>
       <c r="V80">
-        <v>2.9600000000000001E-2</v>
+        <v>0.0296</v>
       </c>
       <c r="W80">
         <v>0</v>
@@ -11792,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46">
       <c r="A81">
         <v>1</v>
       </c>
@@ -11824,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="K81">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L81">
         <v>1309</v>
@@ -11833,10 +11756,10 @@
         <v>20</v>
       </c>
       <c r="N81">
-        <v>0.31630000000000003</v>
+        <v>0.3163</v>
       </c>
       <c r="O81">
-        <v>5.04E-2</v>
+        <v>0.0504</v>
       </c>
       <c r="P81">
         <v>0.1138</v>
@@ -11848,16 +11771,16 @@
         <v>0.1749</v>
       </c>
       <c r="S81">
-        <v>4.7399999999999998E-2</v>
+        <v>0.0474</v>
       </c>
       <c r="T81">
-        <v>5.8099999999999999E-2</v>
+        <v>0.0581</v>
       </c>
       <c r="U81">
-        <v>0.12529999999999999</v>
+        <v>0.1253</v>
       </c>
       <c r="V81">
-        <v>2.29E-2</v>
+        <v>0.0229</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -11932,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46">
       <c r="A82">
         <v>1</v>
       </c>
@@ -11964,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L82">
         <v>533</v>
@@ -11973,31 +11896,31 @@
         <v>10</v>
       </c>
       <c r="N82">
-        <v>0.32650000000000001</v>
+        <v>0.3265</v>
       </c>
       <c r="O82">
-        <v>6.3799999999999996E-2</v>
+        <v>0.0638</v>
       </c>
       <c r="P82">
         <v>0.1069</v>
       </c>
       <c r="Q82">
-        <v>1.1299999999999999E-2</v>
+        <v>0.0113</v>
       </c>
       <c r="R82">
-        <v>0.20449999999999999</v>
+        <v>0.2045</v>
       </c>
       <c r="S82">
-        <v>3.9399999999999998E-2</v>
+        <v>0.0394</v>
       </c>
       <c r="T82">
-        <v>3.9399999999999998E-2</v>
+        <v>0.0394</v>
       </c>
       <c r="U82">
         <v>0.1351</v>
       </c>
       <c r="V82">
-        <v>5.5999999999999999E-3</v>
+        <v>0.0056</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -12072,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46">
       <c r="A83">
         <v>1</v>
       </c>
@@ -12104,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L83">
         <v>1171</v>
@@ -12113,31 +12036,31 @@
         <v>19</v>
       </c>
       <c r="N83">
-        <v>0.28860000000000002</v>
+        <v>0.2886</v>
       </c>
       <c r="O83">
         <v>0.1008</v>
       </c>
       <c r="P83">
-        <v>0.11609999999999999</v>
+        <v>0.1161</v>
       </c>
       <c r="Q83">
-        <v>2.4799999999999999E-2</v>
+        <v>0.0248</v>
       </c>
       <c r="R83">
         <v>0.1623</v>
       </c>
       <c r="S83">
-        <v>5.04E-2</v>
+        <v>0.0504</v>
       </c>
       <c r="T83">
-        <v>5.8099999999999999E-2</v>
+        <v>0.0581</v>
       </c>
       <c r="U83">
-        <v>0.12039999999999999</v>
+        <v>0.1204</v>
       </c>
       <c r="V83">
-        <v>3.3999999999999998E-3</v>
+        <v>0.0034</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -12212,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46">
       <c r="A84">
         <v>1</v>
       </c>
@@ -12244,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="K84">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="L84">
         <v>651</v>
@@ -12253,10 +12176,10 @@
         <v>22</v>
       </c>
       <c r="N84">
-        <v>0.26269999999999999</v>
+        <v>0.2627</v>
       </c>
       <c r="O84">
-        <v>4.1500000000000002E-2</v>
+        <v>0.0415</v>
       </c>
       <c r="P84">
         <v>0.1736</v>
@@ -12268,16 +12191,16 @@
         <v>0.1782</v>
       </c>
       <c r="S84">
-        <v>3.9899999999999998E-2</v>
+        <v>0.0399</v>
       </c>
       <c r="T84">
-        <v>7.8299999999999995E-2</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="U84">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="V84">
-        <v>4.5999999999999999E-3</v>
+        <v>0.0046</v>
       </c>
       <c r="W84">
         <v>1</v>
@@ -12352,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46">
       <c r="A85">
         <v>1</v>
       </c>
@@ -12384,7 +12307,7 @@
         <v>1</v>
       </c>
       <c r="K85">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="L85">
         <v>1341</v>
@@ -12393,31 +12316,31 @@
         <v>15</v>
       </c>
       <c r="N85">
-        <v>0.31690000000000002</v>
+        <v>0.3169</v>
       </c>
       <c r="O85">
-        <v>7.3800000000000004E-2</v>
+        <v>0.0738</v>
       </c>
       <c r="P85">
-        <v>9.69E-2</v>
+        <v>0.0969</v>
       </c>
       <c r="Q85">
-        <v>6.8599999999999994E-2</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="R85">
-        <v>0.17599999999999999</v>
+        <v>0.176</v>
       </c>
       <c r="S85">
-        <v>2.3900000000000001E-2</v>
+        <v>0.0239</v>
       </c>
       <c r="T85">
-        <v>5.2200000000000003E-2</v>
+        <v>0.0522</v>
       </c>
       <c r="U85">
-        <v>0.15210000000000001</v>
+        <v>0.1521</v>
       </c>
       <c r="V85">
-        <v>2.3900000000000001E-2</v>
+        <v>0.0239</v>
       </c>
       <c r="W85">
         <v>0</v>
@@ -12492,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46">
       <c r="A86">
         <v>1</v>
       </c>
@@ -12524,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="K86">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L86">
         <v>731</v>
@@ -12533,10 +12456,10 @@
         <v>18</v>
       </c>
       <c r="N86">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="O86">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="P86">
         <v>0.1067</v>
@@ -12545,19 +12468,19 @@
         <v>0.13</v>
       </c>
       <c r="R86">
-        <v>0.16689999999999999</v>
+        <v>0.1669</v>
       </c>
       <c r="S86">
-        <v>3.15E-2</v>
+        <v>0.0315</v>
       </c>
       <c r="T86">
-        <v>6.9800000000000001E-2</v>
+        <v>0.0698</v>
       </c>
       <c r="U86">
         <v>0.1012</v>
       </c>
       <c r="V86">
-        <v>1.6400000000000001E-2</v>
+        <v>0.0164</v>
       </c>
       <c r="W86">
         <v>0</v>
@@ -12632,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46">
       <c r="A87">
         <v>1</v>
       </c>
@@ -12664,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="L87">
         <v>1200</v>
@@ -12673,31 +12596,31 @@
         <v>18</v>
       </c>
       <c r="N87">
-        <v>0.33169999999999999</v>
+        <v>0.3317</v>
       </c>
       <c r="O87">
-        <v>5.0799999999999998E-2</v>
+        <v>0.0508</v>
       </c>
       <c r="P87">
-        <v>0.13919999999999999</v>
+        <v>0.1392</v>
       </c>
       <c r="Q87">
-        <v>6.5799999999999997E-2</v>
+        <v>0.0658</v>
       </c>
       <c r="R87">
-        <v>0.17419999999999999</v>
+        <v>0.1742</v>
       </c>
       <c r="S87">
-        <v>3.3300000000000003E-2</v>
+        <v>0.0333</v>
       </c>
       <c r="T87">
-        <v>3.7499999999999999E-2</v>
+        <v>0.0375</v>
       </c>
       <c r="U87">
         <v>0.1108</v>
       </c>
       <c r="V87">
-        <v>1.3299999999999999E-2</v>
+        <v>0.0133</v>
       </c>
       <c r="W87">
         <v>0</v>
@@ -12772,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46">
       <c r="A88">
         <v>1</v>
       </c>
@@ -12804,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="K88">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="L88">
         <v>687</v>
@@ -12816,28 +12739,28 @@
         <v>0.3362</v>
       </c>
       <c r="O88">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="P88">
-        <v>0.13100000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="Q88">
-        <v>9.7500000000000003E-2</v>
+        <v>0.0975</v>
       </c>
       <c r="R88">
-        <v>0.14849999999999999</v>
+        <v>0.1485</v>
       </c>
       <c r="S88">
-        <v>3.6400000000000002E-2</v>
+        <v>0.0364</v>
       </c>
       <c r="T88">
-        <v>4.5100000000000001E-2</v>
+        <v>0.0451</v>
       </c>
       <c r="U88">
         <v>0.1237</v>
       </c>
       <c r="V88">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="W88">
         <v>0</v>
@@ -12912,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46">
       <c r="A89">
         <v>1</v>
       </c>
@@ -12944,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="K89">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="L89">
         <v>782</v>
@@ -12953,31 +12876,31 @@
         <v>17</v>
       </c>
       <c r="N89">
-        <v>0.27489999999999998</v>
+        <v>0.2749</v>
       </c>
       <c r="O89">
-        <v>7.6700000000000004E-2</v>
+        <v>0.0767</v>
       </c>
       <c r="P89">
         <v>0.124</v>
       </c>
       <c r="Q89">
-        <v>6.2700000000000006E-2</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="R89">
         <v>0.1547</v>
       </c>
       <c r="S89">
-        <v>4.0899999999999999E-2</v>
+        <v>0.0409</v>
       </c>
       <c r="T89">
-        <v>6.3899999999999998E-2</v>
+        <v>0.0639</v>
       </c>
       <c r="U89">
         <v>0.1061</v>
       </c>
       <c r="V89">
-        <v>1.7899999999999999E-2</v>
+        <v>0.0179</v>
       </c>
       <c r="W89">
         <v>1</v>
@@ -13052,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46">
       <c r="A90">
         <v>1</v>
       </c>
@@ -13084,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L90">
         <v>749</v>
@@ -13093,31 +13016,31 @@
         <v>8</v>
       </c>
       <c r="N90">
-        <v>0.33110000000000001</v>
+        <v>0.3311</v>
       </c>
       <c r="O90">
-        <v>7.3400000000000007E-2</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="P90">
         <v>0.1095</v>
       </c>
       <c r="Q90">
-        <v>7.7399999999999997E-2</v>
+        <v>0.0774</v>
       </c>
       <c r="R90">
         <v>0.1469</v>
       </c>
       <c r="S90">
-        <v>4.5400000000000003E-2</v>
+        <v>0.0454</v>
       </c>
       <c r="T90">
-        <v>5.6099999999999997E-2</v>
+        <v>0.0561</v>
       </c>
       <c r="U90">
-        <v>0.11749999999999999</v>
+        <v>0.1175</v>
       </c>
       <c r="V90">
-        <v>1.7399999999999999E-2</v>
+        <v>0.0174</v>
       </c>
       <c r="W90">
         <v>1</v>
@@ -13192,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46">
       <c r="A91">
         <v>1</v>
       </c>
@@ -13224,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="K91">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L91">
         <v>580</v>
@@ -13233,31 +13156,31 @@
         <v>8</v>
       </c>
       <c r="N91">
-        <v>0.35520000000000002</v>
+        <v>0.3552</v>
       </c>
       <c r="O91">
-        <v>7.2400000000000006E-2</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="P91">
-        <v>0.10340000000000001</v>
+        <v>0.1034</v>
       </c>
       <c r="Q91">
-        <v>9.6600000000000005E-2</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="R91">
         <v>0.1759</v>
       </c>
       <c r="S91">
-        <v>2.93E-2</v>
+        <v>0.0293</v>
       </c>
       <c r="T91">
-        <v>4.6600000000000003E-2</v>
+        <v>0.0466</v>
       </c>
       <c r="U91">
         <v>0.1328</v>
       </c>
       <c r="V91">
-        <v>1.21E-2</v>
+        <v>0.0121</v>
       </c>
       <c r="W91">
         <v>0</v>
@@ -13332,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46">
       <c r="A92">
         <v>1</v>
       </c>
@@ -13364,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L92">
         <v>1152</v>
@@ -13376,25 +13299,25 @@
         <v>0.2535</v>
       </c>
       <c r="O92">
-        <v>7.3800000000000004E-2</v>
+        <v>0.0738</v>
       </c>
       <c r="P92">
-        <v>0.12670000000000001</v>
+        <v>0.1267</v>
       </c>
       <c r="Q92">
-        <v>2.2599999999999999E-2</v>
+        <v>0.0226</v>
       </c>
       <c r="R92">
         <v>0.1701</v>
       </c>
       <c r="S92">
-        <v>4.3400000000000001E-2</v>
+        <v>0.0434</v>
       </c>
       <c r="T92">
-        <v>7.5499999999999998E-2</v>
+        <v>0.0755</v>
       </c>
       <c r="U92">
-        <v>0.11020000000000001</v>
+        <v>0.1102</v>
       </c>
       <c r="V92">
         <v>0.02</v>
@@ -13472,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46">
       <c r="A93">
         <v>1</v>
       </c>
@@ -13504,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="K93">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L93">
         <v>749</v>
@@ -13513,31 +13436,31 @@
         <v>18</v>
       </c>
       <c r="N93">
-        <v>0.28039999999999998</v>
+        <v>0.2804</v>
       </c>
       <c r="O93">
-        <v>9.35E-2</v>
+        <v>0.0935</v>
       </c>
       <c r="P93">
         <v>0.1202</v>
       </c>
       <c r="Q93">
-        <v>4.9399999999999999E-2</v>
+        <v>0.0494</v>
       </c>
       <c r="R93">
         <v>0.1429</v>
       </c>
       <c r="S93">
-        <v>5.0700000000000002E-2</v>
+        <v>0.0507</v>
       </c>
       <c r="T93">
-        <v>6.1400000000000003E-2</v>
+        <v>0.0614</v>
       </c>
       <c r="U93">
         <v>0.1041</v>
       </c>
       <c r="V93">
-        <v>1.7399999999999999E-2</v>
+        <v>0.0174</v>
       </c>
       <c r="W93">
         <v>0</v>
@@ -13612,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46">
       <c r="A94">
         <v>1</v>
       </c>
@@ -13644,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="K94">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L94">
         <v>552</v>
@@ -13653,31 +13576,31 @@
         <v>14</v>
       </c>
       <c r="N94">
-        <v>0.27360000000000001</v>
+        <v>0.2736</v>
       </c>
       <c r="O94">
-        <v>5.62E-2</v>
+        <v>0.0562</v>
       </c>
       <c r="P94">
         <v>0.154</v>
       </c>
       <c r="Q94">
-        <v>1.8100000000000002E-2</v>
+        <v>0.0181</v>
       </c>
       <c r="R94">
-        <v>0.16489999999999999</v>
+        <v>0.1649</v>
       </c>
       <c r="S94">
-        <v>3.9899999999999998E-2</v>
+        <v>0.0399</v>
       </c>
       <c r="T94">
-        <v>7.2499999999999995E-2</v>
+        <v>0.0725</v>
       </c>
       <c r="U94">
-        <v>8.6999999999999994E-2</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V94">
-        <v>1.09E-2</v>
+        <v>0.0109</v>
       </c>
       <c r="W94">
         <v>1</v>
@@ -13752,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46">
       <c r="A95">
         <v>1</v>
       </c>
@@ -13784,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="K95">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L95">
         <v>1083</v>
@@ -13796,28 +13719,28 @@
         <v>0.2853</v>
       </c>
       <c r="O95">
-        <v>6.1899999999999997E-2</v>
+        <v>0.0619</v>
       </c>
       <c r="P95">
-        <v>0.13020000000000001</v>
+        <v>0.1302</v>
       </c>
       <c r="Q95">
-        <v>4.5999999999999999E-3</v>
+        <v>0.0046</v>
       </c>
       <c r="R95">
-        <v>0.17910000000000001</v>
+        <v>0.1791</v>
       </c>
       <c r="S95">
-        <v>3.9699999999999999E-2</v>
+        <v>0.0397</v>
       </c>
       <c r="T95">
-        <v>6.0900000000000003E-2</v>
+        <v>0.0609</v>
       </c>
       <c r="U95">
         <v>0.1108</v>
       </c>
       <c r="V95">
-        <v>1.0200000000000001E-2</v>
+        <v>0.0102</v>
       </c>
       <c r="W95">
         <v>1</v>
@@ -13892,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46">
       <c r="A96">
         <v>1</v>
       </c>
@@ -13924,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="K96">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L96">
         <v>685</v>
@@ -13933,10 +13856,10 @@
         <v>19</v>
       </c>
       <c r="N96">
-        <v>0.34160000000000001</v>
+        <v>0.3416</v>
       </c>
       <c r="O96">
-        <v>8.6099999999999996E-2</v>
+        <v>0.0861</v>
       </c>
       <c r="P96">
         <v>0.1066</v>
@@ -13945,19 +13868,19 @@
         <v>0.1153</v>
       </c>
       <c r="R96">
-        <v>0.16350000000000001</v>
+        <v>0.1635</v>
       </c>
       <c r="S96">
-        <v>5.6899999999999999E-2</v>
+        <v>0.0569</v>
       </c>
       <c r="T96">
-        <v>4.9599999999999998E-2</v>
+        <v>0.0496</v>
       </c>
       <c r="U96">
         <v>0.1007</v>
       </c>
       <c r="V96">
-        <v>1.7500000000000002E-2</v>
+        <v>0.0175</v>
       </c>
       <c r="W96">
         <v>0</v>
@@ -14032,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46">
       <c r="A97">
         <v>0</v>
       </c>
@@ -14064,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="K97">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L97">
         <v>756</v>
@@ -14073,31 +13996,31 @@
         <v>12</v>
       </c>
       <c r="N97">
-        <v>0.34789999999999999</v>
+        <v>0.3479</v>
       </c>
       <c r="O97">
-        <v>7.2800000000000004E-2</v>
+        <v>0.0728</v>
       </c>
       <c r="P97">
-        <v>0.10050000000000001</v>
+        <v>0.1005</v>
       </c>
       <c r="Q97">
-        <v>0.14549999999999999</v>
+        <v>0.1455</v>
       </c>
       <c r="R97">
-        <v>0.16139999999999999</v>
+        <v>0.1614</v>
       </c>
       <c r="S97">
-        <v>2.7799999999999998E-2</v>
+        <v>0.0278</v>
       </c>
       <c r="T97">
-        <v>5.2900000000000003E-2</v>
+        <v>0.0529</v>
       </c>
       <c r="U97">
         <v>0.1138</v>
       </c>
       <c r="V97">
-        <v>1.5900000000000001E-2</v>
+        <v>0.0159</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -14172,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46">
       <c r="A98">
         <v>1</v>
       </c>
@@ -14204,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="L98">
         <v>1236</v>
@@ -14213,31 +14136,31 @@
         <v>19</v>
       </c>
       <c r="N98">
-        <v>0.30180000000000001</v>
+        <v>0.3018</v>
       </c>
       <c r="O98">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="P98">
-        <v>9.7900000000000001E-2</v>
+        <v>0.0979</v>
       </c>
       <c r="Q98">
-        <v>4.3700000000000003E-2</v>
+        <v>0.0437</v>
       </c>
       <c r="R98">
-        <v>0.16589999999999999</v>
+        <v>0.1659</v>
       </c>
       <c r="S98">
-        <v>3.56E-2</v>
+        <v>0.0356</v>
       </c>
       <c r="T98">
-        <v>5.4199999999999998E-2</v>
+        <v>0.0542</v>
       </c>
       <c r="U98">
         <v>0.123</v>
       </c>
       <c r="V98">
-        <v>2.6700000000000002E-2</v>
+        <v>0.0267</v>
       </c>
       <c r="W98">
         <v>0</v>
@@ -14312,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46">
       <c r="A99">
         <v>1</v>
       </c>
@@ -14344,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="K99">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L99">
         <v>554</v>
@@ -14353,31 +14276,31 @@
         <v>9</v>
       </c>
       <c r="N99">
-        <v>0.29239999999999999</v>
+        <v>0.2924</v>
       </c>
       <c r="O99">
-        <v>8.1199999999999994E-2</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="P99">
-        <v>0.12820000000000001</v>
+        <v>0.1282</v>
       </c>
       <c r="Q99">
-        <v>2.1700000000000001E-2</v>
+        <v>0.0217</v>
       </c>
       <c r="R99">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="S99">
-        <v>5.0500000000000003E-2</v>
+        <v>0.0505</v>
       </c>
       <c r="T99">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="U99">
         <v>0.1227</v>
       </c>
       <c r="V99">
-        <v>8.9999999999999993E-3</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="W99">
         <v>0</v>
@@ -14452,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46">
       <c r="A100">
         <v>1</v>
       </c>
@@ -14484,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>685</v>
+        <v>730</v>
       </c>
       <c r="L100">
         <v>606</v>
@@ -14493,31 +14416,31 @@
         <v>11</v>
       </c>
       <c r="N100">
-        <v>0.34320000000000001</v>
+        <v>0.3432</v>
       </c>
       <c r="O100">
-        <v>8.2500000000000004E-2</v>
+        <v>0.0825</v>
       </c>
       <c r="P100">
-        <v>9.4100000000000003E-2</v>
+        <v>0.0941</v>
       </c>
       <c r="Q100">
-        <v>3.1399999999999997E-2</v>
+        <v>0.0314</v>
       </c>
       <c r="R100">
-        <v>0.17660000000000001</v>
+        <v>0.1766</v>
       </c>
       <c r="S100">
-        <v>4.1300000000000003E-2</v>
+        <v>0.0413</v>
       </c>
       <c r="T100">
-        <v>3.1399999999999997E-2</v>
+        <v>0.0314</v>
       </c>
       <c r="U100">
         <v>0.1419</v>
       </c>
       <c r="V100">
-        <v>2.4799999999999999E-2</v>
+        <v>0.0248</v>
       </c>
       <c r="W100">
         <v>0</v>
@@ -14592,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46">
       <c r="A101">
         <v>1</v>
       </c>
@@ -14624,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="K101">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="L101">
         <v>564</v>
@@ -14633,31 +14556,31 @@
         <v>12</v>
       </c>
       <c r="N101">
-        <v>0.30669999999999997</v>
+        <v>0.3067</v>
       </c>
       <c r="O101">
-        <v>6.2100000000000002E-2</v>
+        <v>0.0621</v>
       </c>
       <c r="P101">
         <v>0.1099</v>
       </c>
       <c r="Q101">
-        <v>2.1299999999999999E-2</v>
+        <v>0.0213</v>
       </c>
       <c r="R101">
         <v>0.1986</v>
       </c>
       <c r="S101">
-        <v>2.1299999999999999E-2</v>
+        <v>0.0213</v>
       </c>
       <c r="T101">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="U101">
         <v>0.1082</v>
       </c>
       <c r="V101">
-        <v>1.77E-2</v>
+        <v>0.0177</v>
       </c>
       <c r="W101">
         <v>1</v>
@@ -14732,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46">
       <c r="A102">
         <v>1</v>
       </c>
@@ -14764,7 +14687,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L102">
         <v>1219</v>
@@ -14776,28 +14699,28 @@
         <v>0.3175</v>
       </c>
       <c r="O102">
-        <v>7.0499999999999993E-2</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="P102">
         <v>0.1222</v>
       </c>
       <c r="Q102">
-        <v>4.7600000000000003E-2</v>
+        <v>0.0476</v>
       </c>
       <c r="R102">
-        <v>0.15340000000000001</v>
+        <v>0.1534</v>
       </c>
       <c r="S102">
-        <v>3.04E-2</v>
+        <v>0.0304</v>
       </c>
       <c r="T102">
-        <v>5.0900000000000001E-2</v>
+        <v>0.0509</v>
       </c>
       <c r="U102">
-        <v>0.11650000000000001</v>
+        <v>0.1165</v>
       </c>
       <c r="V102">
-        <v>4.7600000000000003E-2</v>
+        <v>0.0476</v>
       </c>
       <c r="W102">
         <v>0</v>
@@ -14809,7 +14732,7 @@
         <v>30</v>
       </c>
       <c r="Z102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA102">
         <v>245</v>
@@ -14872,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46">
       <c r="A103">
         <v>1</v>
       </c>
@@ -14904,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="K103">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L103">
         <v>437</v>
@@ -14913,31 +14836,31 @@
         <v>10</v>
       </c>
       <c r="N103">
-        <v>0.24940000000000001</v>
+        <v>0.2494</v>
       </c>
       <c r="O103">
-        <v>7.7799999999999994E-2</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="P103">
-        <v>0.16700000000000001</v>
+        <v>0.167</v>
       </c>
       <c r="Q103">
-        <v>2.75E-2</v>
+        <v>0.0275</v>
       </c>
       <c r="R103">
-        <v>0.13270000000000001</v>
+        <v>0.1327</v>
       </c>
       <c r="S103">
-        <v>6.1800000000000001E-2</v>
+        <v>0.0618</v>
       </c>
       <c r="T103">
-        <v>8.2400000000000001E-2</v>
+        <v>0.0824</v>
       </c>
       <c r="U103">
-        <v>8.9200000000000002E-2</v>
+        <v>0.0892</v>
       </c>
       <c r="V103">
-        <v>2.3E-3</v>
+        <v>0.0023</v>
       </c>
       <c r="W103">
         <v>1</v>
@@ -15012,7 +14935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46">
       <c r="A104">
         <v>1</v>
       </c>
@@ -15044,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="L104">
         <v>1011</v>
@@ -15053,31 +14976,31 @@
         <v>11</v>
       </c>
       <c r="N104">
-        <v>0.25719999999999998</v>
+        <v>0.2572</v>
       </c>
       <c r="O104">
-        <v>7.6200000000000004E-2</v>
+        <v>0.0762</v>
       </c>
       <c r="P104">
-        <v>0.13750000000000001</v>
+        <v>0.1375</v>
       </c>
       <c r="Q104">
-        <v>4.8500000000000001E-2</v>
+        <v>0.0485</v>
       </c>
       <c r="R104">
         <v>0.1454</v>
       </c>
       <c r="S104">
-        <v>5.2400000000000002E-2</v>
+        <v>0.0524</v>
       </c>
       <c r="T104">
-        <v>5.3400000000000003E-2</v>
+        <v>0.0534</v>
       </c>
       <c r="U104">
-        <v>0.10979999999999999</v>
+        <v>0.1098</v>
       </c>
       <c r="V104">
-        <v>4.5499999999999999E-2</v>
+        <v>0.0455</v>
       </c>
       <c r="W104">
         <v>0</v>
@@ -15152,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46">
       <c r="A105">
         <v>1</v>
       </c>
@@ -15184,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="K105">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="L105">
         <v>987</v>
@@ -15193,31 +15116,31 @@
         <v>17</v>
       </c>
       <c r="N105">
-        <v>0.29580000000000001</v>
+        <v>0.2958</v>
       </c>
       <c r="O105">
-        <v>8.6099999999999996E-2</v>
+        <v>0.0861</v>
       </c>
       <c r="P105">
-        <v>0.11749999999999999</v>
+        <v>0.1175</v>
       </c>
       <c r="Q105">
-        <v>2.9399999999999999E-2</v>
+        <v>0.0294</v>
       </c>
       <c r="R105">
-        <v>0.18240000000000001</v>
+        <v>0.1824</v>
       </c>
       <c r="S105">
-        <v>5.57E-2</v>
+        <v>0.0557</v>
       </c>
       <c r="T105">
-        <v>4.6600000000000003E-2</v>
+        <v>0.0466</v>
       </c>
       <c r="U105">
         <v>0.1033</v>
       </c>
       <c r="V105">
-        <v>1.32E-2</v>
+        <v>0.0132</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -15292,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46">
       <c r="A106">
         <v>1</v>
       </c>
@@ -15324,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="K106">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L106">
         <v>563</v>
@@ -15333,7 +15256,7 @@
         <v>11</v>
       </c>
       <c r="N106">
-        <v>0.31259999999999999</v>
+        <v>0.3126</v>
       </c>
       <c r="O106">
         <v>0.1137</v>
@@ -15342,22 +15265,22 @@
         <v>0.1012</v>
       </c>
       <c r="Q106">
-        <v>6.7500000000000004E-2</v>
+        <v>0.0675</v>
       </c>
       <c r="R106">
         <v>0.1794</v>
       </c>
       <c r="S106">
-        <v>6.0400000000000002E-2</v>
+        <v>0.0604</v>
       </c>
       <c r="T106">
-        <v>4.0899999999999999E-2</v>
+        <v>0.0409</v>
       </c>
       <c r="U106">
-        <v>0.10299999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="V106">
-        <v>1.0699999999999999E-2</v>
+        <v>0.0107</v>
       </c>
       <c r="W106">
         <v>0</v>
@@ -15432,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46">
       <c r="A107">
         <v>1</v>
       </c>
@@ -15464,7 +15387,7 @@
         <v>1</v>
       </c>
       <c r="K107">
-        <v>1074</v>
+        <v>1118</v>
       </c>
       <c r="L107">
         <v>788</v>
@@ -15473,7 +15396,7 @@
         <v>28</v>
       </c>
       <c r="N107">
-        <v>0.20430000000000001</v>
+        <v>0.2043</v>
       </c>
       <c r="O107">
         <v>0.1079</v>
@@ -15482,22 +15405,22 @@
         <v>0.1168</v>
       </c>
       <c r="Q107">
-        <v>5.1000000000000004E-3</v>
+        <v>0.0051</v>
       </c>
       <c r="R107">
-        <v>0.13320000000000001</v>
+        <v>0.1332</v>
       </c>
       <c r="S107">
-        <v>3.5499999999999997E-2</v>
+        <v>0.0355</v>
       </c>
       <c r="T107">
-        <v>6.4699999999999994E-2</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="U107">
-        <v>7.4899999999999994E-2</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="V107">
-        <v>9.01E-2</v>
+        <v>0.0901</v>
       </c>
       <c r="W107">
         <v>1</v>
@@ -15572,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46">
       <c r="A108">
         <v>1</v>
       </c>
@@ -15604,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="K108">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="L108">
         <v>652</v>
@@ -15613,31 +15536,31 @@
         <v>9</v>
       </c>
       <c r="N108">
-        <v>0.30209999999999998</v>
+        <v>0.3021</v>
       </c>
       <c r="O108">
-        <v>9.0499999999999997E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="P108">
-        <v>0.13189999999999999</v>
+        <v>0.1319</v>
       </c>
       <c r="Q108">
-        <v>9.1999999999999998E-3</v>
+        <v>0.0092</v>
       </c>
       <c r="R108">
-        <v>0.15340000000000001</v>
+        <v>0.1534</v>
       </c>
       <c r="S108">
-        <v>2.9100000000000001E-2</v>
+        <v>0.0291</v>
       </c>
       <c r="T108">
-        <v>6.2899999999999998E-2</v>
+        <v>0.0629</v>
       </c>
       <c r="U108">
         <v>0.1181</v>
       </c>
       <c r="V108">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="W108">
         <v>0</v>
@@ -15649,7 +15572,7 @@
         <v>22</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA108">
         <v>204</v>
@@ -15712,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46">
       <c r="A109">
         <v>1</v>
       </c>
@@ -15744,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="K109">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="L109">
         <v>608</v>
@@ -15753,31 +15676,31 @@
         <v>10</v>
       </c>
       <c r="N109">
-        <v>0.32069999999999999</v>
+        <v>0.3207</v>
       </c>
       <c r="O109">
-        <v>5.9200000000000003E-2</v>
+        <v>0.0592</v>
       </c>
       <c r="P109">
-        <v>0.12659999999999999</v>
+        <v>0.1266</v>
       </c>
       <c r="Q109">
-        <v>4.9299999999999997E-2</v>
+        <v>0.0493</v>
       </c>
       <c r="R109">
         <v>0.1908</v>
       </c>
       <c r="S109">
-        <v>3.78E-2</v>
+        <v>0.0378</v>
       </c>
       <c r="T109">
-        <v>5.2600000000000001E-2</v>
+        <v>0.0526</v>
       </c>
       <c r="U109">
         <v>0.1135</v>
       </c>
       <c r="V109">
-        <v>1.8100000000000002E-2</v>
+        <v>0.0181</v>
       </c>
       <c r="W109">
         <v>1</v>
@@ -15852,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46">
       <c r="A110">
         <v>1</v>
       </c>
@@ -15884,7 +15807,7 @@
         <v>1</v>
       </c>
       <c r="K110">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="L110">
         <v>759</v>
@@ -15893,31 +15816,31 @@
         <v>21</v>
       </c>
       <c r="N110">
-        <v>0.27010000000000001</v>
+        <v>0.2701</v>
       </c>
       <c r="O110">
-        <v>5.9299999999999999E-2</v>
+        <v>0.0593</v>
       </c>
       <c r="P110">
-        <v>0.11459999999999999</v>
+        <v>0.1146</v>
       </c>
       <c r="Q110">
-        <v>4.0800000000000003E-2</v>
+        <v>0.0408</v>
       </c>
       <c r="R110">
         <v>0.1555</v>
       </c>
       <c r="S110">
-        <v>2.64E-2</v>
+        <v>0.0264</v>
       </c>
       <c r="T110">
-        <v>4.87E-2</v>
+        <v>0.0487</v>
       </c>
       <c r="U110">
         <v>0.1173</v>
       </c>
       <c r="V110">
-        <v>8.8300000000000003E-2</v>
+        <v>0.0883</v>
       </c>
       <c r="W110">
         <v>0</v>
@@ -15992,7 +15915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46">
       <c r="A111">
         <v>1</v>
       </c>
@@ -16024,7 +15947,7 @@
         <v>1</v>
       </c>
       <c r="K111">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="L111">
         <v>954</v>
@@ -16033,31 +15956,31 @@
         <v>9</v>
       </c>
       <c r="N111">
-        <v>0.26419999999999999</v>
+        <v>0.2642</v>
       </c>
       <c r="O111">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="P111">
-        <v>0.12889999999999999</v>
+        <v>0.1289</v>
       </c>
       <c r="Q111">
-        <v>2.8299999999999999E-2</v>
+        <v>0.0283</v>
       </c>
       <c r="R111">
         <v>0.1331</v>
       </c>
       <c r="S111">
-        <v>4.6100000000000002E-2</v>
+        <v>0.0461</v>
       </c>
       <c r="T111">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="U111">
         <v>0.109</v>
       </c>
       <c r="V111">
-        <v>2.7300000000000001E-2</v>
+        <v>0.0273</v>
       </c>
       <c r="W111">
         <v>1</v>
@@ -16132,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46">
       <c r="A112">
         <v>1</v>
       </c>
@@ -16164,40 +16087,40 @@
         <v>1</v>
       </c>
       <c r="K112">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="L112">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M112">
         <v>12</v>
       </c>
       <c r="N112">
-        <v>0.32779999999999998</v>
+        <v>0.3273</v>
       </c>
       <c r="O112">
-        <v>7.2499999999999995E-2</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="P112">
-        <v>0.1137</v>
+        <v>0.1135</v>
       </c>
       <c r="Q112">
-        <v>1.9800000000000002E-2</v>
+        <v>0.0214</v>
       </c>
       <c r="R112">
-        <v>0.16800000000000001</v>
+        <v>0.1694</v>
       </c>
       <c r="S112">
-        <v>3.4599999999999999E-2</v>
+        <v>0.0345</v>
       </c>
       <c r="T112">
-        <v>4.4499999999999998E-2</v>
+        <v>0.0444</v>
       </c>
       <c r="U112">
-        <v>0.1384</v>
+        <v>0.1382</v>
       </c>
       <c r="V112">
-        <v>8.2000000000000007E-3</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="W112">
         <v>0</v>
@@ -16272,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46">
       <c r="A113">
         <v>1</v>
       </c>
@@ -16304,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="K113">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L113">
         <v>1219</v>
@@ -16313,31 +16236,31 @@
         <v>10</v>
       </c>
       <c r="N113">
-        <v>0.28549999999999998</v>
+        <v>0.2855</v>
       </c>
       <c r="O113">
-        <v>6.9699999999999998E-2</v>
+        <v>0.0697</v>
       </c>
       <c r="P113">
         <v>0.1288</v>
       </c>
       <c r="Q113">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="R113">
-        <v>0.16819999999999999</v>
+        <v>0.1682</v>
       </c>
       <c r="S113">
-        <v>3.2800000000000003E-2</v>
+        <v>0.0328</v>
       </c>
       <c r="T113">
-        <v>5.9900000000000002E-2</v>
+        <v>0.0599</v>
       </c>
       <c r="U113">
-        <v>0.13039999999999999</v>
+        <v>0.1304</v>
       </c>
       <c r="V113">
-        <v>2.46E-2</v>
+        <v>0.0246</v>
       </c>
       <c r="W113">
         <v>1</v>
@@ -16412,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46">
       <c r="A114">
         <v>1</v>
       </c>
@@ -16444,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="K114">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L114">
         <v>886</v>
@@ -16453,31 +16376,31 @@
         <v>19</v>
       </c>
       <c r="N114">
-        <v>0.28100000000000003</v>
+        <v>0.281</v>
       </c>
       <c r="O114">
-        <v>8.2400000000000001E-2</v>
+        <v>0.0824</v>
       </c>
       <c r="P114">
-        <v>0.12640000000000001</v>
+        <v>0.1264</v>
       </c>
       <c r="Q114">
-        <v>6.7699999999999996E-2</v>
+        <v>0.0677</v>
       </c>
       <c r="R114">
-        <v>0.16139999999999999</v>
+        <v>0.1614</v>
       </c>
       <c r="S114">
-        <v>3.61E-2</v>
+        <v>0.0361</v>
       </c>
       <c r="T114">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U114">
         <v>0.1061</v>
       </c>
       <c r="V114">
-        <v>1.9199999999999998E-2</v>
+        <v>0.0192</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -16552,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46">
       <c r="A115">
         <v>1</v>
       </c>
@@ -16584,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L115">
         <v>812</v>
@@ -16593,31 +16516,31 @@
         <v>12</v>
       </c>
       <c r="N115">
-        <v>0.27960000000000002</v>
+        <v>0.2796</v>
       </c>
       <c r="O115">
-        <v>4.6800000000000001E-2</v>
+        <v>0.0468</v>
       </c>
       <c r="P115">
         <v>0.1268</v>
       </c>
       <c r="Q115">
-        <v>5.4199999999999998E-2</v>
+        <v>0.0542</v>
       </c>
       <c r="R115">
-        <v>0.17730000000000001</v>
+        <v>0.1773</v>
       </c>
       <c r="S115">
-        <v>4.5600000000000002E-2</v>
+        <v>0.0456</v>
       </c>
       <c r="T115">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U115">
         <v>0.1244</v>
       </c>
       <c r="V115">
-        <v>1.35E-2</v>
+        <v>0.0135</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -16692,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46">
       <c r="A116">
         <v>1</v>
       </c>
@@ -16724,7 +16647,7 @@
         <v>1</v>
       </c>
       <c r="K116">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="L116">
         <v>835</v>
@@ -16736,28 +16659,28 @@
         <v>0.2994</v>
       </c>
       <c r="O116">
-        <v>6.9500000000000006E-2</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="P116">
         <v>0.1138</v>
       </c>
       <c r="Q116">
-        <v>2.0400000000000001E-2</v>
+        <v>0.0204</v>
       </c>
       <c r="R116">
         <v>0.1749</v>
       </c>
       <c r="S116">
-        <v>4.9099999999999998E-2</v>
+        <v>0.0491</v>
       </c>
       <c r="T116">
-        <v>5.0299999999999997E-2</v>
+        <v>0.0503</v>
       </c>
       <c r="U116">
         <v>0.1234</v>
       </c>
       <c r="V116">
-        <v>2.2800000000000001E-2</v>
+        <v>0.0228</v>
       </c>
       <c r="W116">
         <v>1</v>
@@ -16769,7 +16692,7 @@
         <v>48</v>
       </c>
       <c r="Z116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA116">
         <v>148</v>
@@ -16832,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46">
       <c r="A117">
         <v>1</v>
       </c>
@@ -16864,7 +16787,7 @@
         <v>1</v>
       </c>
       <c r="K117">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L117">
         <v>778</v>
@@ -16876,28 +16799,28 @@
         <v>0.2828</v>
       </c>
       <c r="O117">
-        <v>4.6300000000000001E-2</v>
+        <v>0.0463</v>
       </c>
       <c r="P117">
         <v>0.1825</v>
       </c>
       <c r="Q117">
-        <v>1.1599999999999999E-2</v>
+        <v>0.0116</v>
       </c>
       <c r="R117">
-        <v>0.14910000000000001</v>
+        <v>0.1491</v>
       </c>
       <c r="S117">
-        <v>4.1099999999999998E-2</v>
+        <v>0.0411</v>
       </c>
       <c r="T117">
-        <v>4.7600000000000003E-2</v>
+        <v>0.0476</v>
       </c>
       <c r="U117">
-        <v>0.12470000000000001</v>
+        <v>0.1247</v>
       </c>
       <c r="V117">
-        <v>5.1000000000000004E-3</v>
+        <v>0.0051</v>
       </c>
       <c r="W117">
         <v>1</v>
@@ -16972,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46">
       <c r="A118">
         <v>1</v>
       </c>
@@ -17013,31 +16936,31 @@
         <v>10</v>
       </c>
       <c r="N118">
-        <v>0.35439999999999999</v>
+        <v>0.3544</v>
       </c>
       <c r="O118">
-        <v>8.1299999999999997E-2</v>
+        <v>0.0813</v>
       </c>
       <c r="P118">
         <v>0.1061</v>
       </c>
       <c r="Q118">
-        <v>0.13769999999999999</v>
+        <v>0.1377</v>
       </c>
       <c r="R118">
-        <v>0.16700000000000001</v>
+        <v>0.167</v>
       </c>
       <c r="S118">
-        <v>3.1600000000000003E-2</v>
+        <v>0.0316</v>
       </c>
       <c r="T118">
-        <v>3.61E-2</v>
+        <v>0.0361</v>
       </c>
       <c r="U118">
         <v>0.1174</v>
       </c>
       <c r="V118">
-        <v>2.4799999999999999E-2</v>
+        <v>0.0248</v>
       </c>
       <c r="W118">
         <v>1</v>
@@ -17112,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46">
       <c r="A119">
         <v>1</v>
       </c>
@@ -17144,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="K119">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L119">
         <v>618</v>
@@ -17153,31 +17076,31 @@
         <v>12</v>
       </c>
       <c r="N119">
-        <v>0.34789999999999999</v>
+        <v>0.3479</v>
       </c>
       <c r="O119">
-        <v>9.2200000000000004E-2</v>
+        <v>0.0922</v>
       </c>
       <c r="P119">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="Q119">
-        <v>7.9299999999999995E-2</v>
+        <v>0.0793</v>
       </c>
       <c r="R119">
-        <v>0.17960000000000001</v>
+        <v>0.1796</v>
       </c>
       <c r="S119">
-        <v>3.2399999999999998E-2</v>
+        <v>0.0324</v>
       </c>
       <c r="T119">
-        <v>2.75E-2</v>
+        <v>0.0275</v>
       </c>
       <c r="U119">
         <v>0.1278</v>
       </c>
       <c r="V119">
-        <v>1.46E-2</v>
+        <v>0.0146</v>
       </c>
       <c r="W119">
         <v>1</v>
@@ -17252,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46">
       <c r="A120">
         <v>1</v>
       </c>
@@ -17284,7 +17207,7 @@
         <v>1</v>
       </c>
       <c r="K120">
-        <v>1333</v>
+        <v>1370</v>
       </c>
       <c r="L120">
         <v>1048</v>
@@ -17296,28 +17219,28 @@
         <v>0.27</v>
       </c>
       <c r="O120">
-        <v>7.4399999999999994E-2</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="P120">
-        <v>0.13739999999999999</v>
+        <v>0.1374</v>
       </c>
       <c r="Q120">
-        <v>2.3900000000000001E-2</v>
+        <v>0.0239</v>
       </c>
       <c r="R120">
         <v>0.1555</v>
       </c>
       <c r="S120">
-        <v>4.9599999999999998E-2</v>
+        <v>0.0496</v>
       </c>
       <c r="T120">
-        <v>7.5399999999999995E-2</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="U120">
         <v>0.1164</v>
       </c>
       <c r="V120">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0048</v>
       </c>
       <c r="W120">
         <v>1</v>
@@ -17392,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46">
       <c r="A121">
         <v>1</v>
       </c>
@@ -17424,7 +17347,7 @@
         <v>1</v>
       </c>
       <c r="K121">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L121">
         <v>1011</v>
@@ -17433,31 +17356,31 @@
         <v>11</v>
       </c>
       <c r="N121">
-        <v>0.30370000000000003</v>
+        <v>0.3037</v>
       </c>
       <c r="O121">
-        <v>8.3099999999999993E-2</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="P121">
         <v>0.1177</v>
       </c>
       <c r="Q121">
-        <v>7.1199999999999999E-2</v>
+        <v>0.0712</v>
       </c>
       <c r="R121">
-        <v>0.16220000000000001</v>
+        <v>0.1622</v>
       </c>
       <c r="S121">
-        <v>4.8500000000000001E-2</v>
+        <v>0.0485</v>
       </c>
       <c r="T121">
-        <v>5.04E-2</v>
+        <v>0.0504</v>
       </c>
       <c r="U121">
         <v>0.1236</v>
       </c>
       <c r="V121">
-        <v>7.9000000000000008E-3</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="W121">
         <v>0</v>
@@ -17532,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46">
       <c r="A122">
         <v>1</v>
       </c>
@@ -17564,40 +17487,40 @@
         <v>1</v>
       </c>
       <c r="K122">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L122">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M122">
         <v>9</v>
       </c>
       <c r="N122">
-        <v>0.32719999999999999</v>
+        <v>0.3268</v>
       </c>
       <c r="O122">
-        <v>8.2900000000000001E-2</v>
+        <v>0.0827</v>
       </c>
       <c r="P122">
-        <v>0.1138</v>
+        <v>0.1136</v>
       </c>
       <c r="Q122">
-        <v>6.1800000000000001E-2</v>
+        <v>0.0631</v>
       </c>
       <c r="R122">
-        <v>0.17280000000000001</v>
+        <v>0.1739</v>
       </c>
       <c r="S122">
-        <v>4.07E-2</v>
+        <v>0.0407</v>
       </c>
       <c r="T122">
-        <v>4.9200000000000001E-2</v>
+        <v>0.0491</v>
       </c>
       <c r="U122">
-        <v>0.12640000000000001</v>
+        <v>0.1262</v>
       </c>
       <c r="V122">
-        <v>1.12E-2</v>
+        <v>0.0112</v>
       </c>
       <c r="W122">
         <v>1</v>
@@ -17672,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46">
       <c r="A123">
         <v>1</v>
       </c>
@@ -17704,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="K123">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L123">
         <v>917</v>
@@ -17716,28 +17639,28 @@
         <v>0.2868</v>
       </c>
       <c r="O123">
-        <v>8.8300000000000003E-2</v>
+        <v>0.0883</v>
       </c>
       <c r="P123">
         <v>0.1232</v>
       </c>
       <c r="Q123">
-        <v>3.3799999999999997E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="R123">
         <v>0.1658</v>
       </c>
       <c r="S123">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="T123">
-        <v>5.0200000000000002E-2</v>
+        <v>0.0502</v>
       </c>
       <c r="U123">
         <v>0.1178</v>
       </c>
       <c r="V123">
-        <v>1.09E-2</v>
+        <v>0.0109</v>
       </c>
       <c r="W123">
         <v>1</v>
@@ -17812,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46">
       <c r="A124">
         <v>0</v>
       </c>
@@ -17844,7 +17767,7 @@
         <v>1</v>
       </c>
       <c r="K124">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L124">
         <v>547</v>
@@ -17853,31 +17776,31 @@
         <v>11</v>
       </c>
       <c r="N124">
-        <v>0.26329999999999998</v>
+        <v>0.2633</v>
       </c>
       <c r="O124">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="P124">
-        <v>0.15359999999999999</v>
+        <v>0.1536</v>
       </c>
       <c r="Q124">
-        <v>1.83E-2</v>
+        <v>0.0183</v>
       </c>
       <c r="R124">
         <v>0.1444</v>
       </c>
       <c r="S124">
-        <v>4.5699999999999998E-2</v>
+        <v>0.0457</v>
       </c>
       <c r="T124">
-        <v>6.0299999999999999E-2</v>
+        <v>0.0603</v>
       </c>
       <c r="U124">
         <v>0.1152</v>
       </c>
       <c r="V124">
-        <v>3.7000000000000002E-3</v>
+        <v>0.0037</v>
       </c>
       <c r="W124">
         <v>1</v>
@@ -17952,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46">
       <c r="A125">
         <v>1</v>
       </c>
@@ -17984,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="K125">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L125">
         <v>1111</v>
@@ -17996,28 +17919,28 @@
         <v>0.2727</v>
       </c>
       <c r="O125">
-        <v>5.9400000000000001E-2</v>
+        <v>0.0594</v>
       </c>
       <c r="P125">
         <v>0.1305</v>
       </c>
       <c r="Q125">
-        <v>3.9600000000000003E-2</v>
+        <v>0.0396</v>
       </c>
       <c r="R125">
-        <v>0.15570000000000001</v>
+        <v>0.1557</v>
       </c>
       <c r="S125">
-        <v>4.2299999999999997E-2</v>
+        <v>0.0423</v>
       </c>
       <c r="T125">
-        <v>7.2900000000000006E-2</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="U125">
-        <v>0.12509999999999999</v>
+        <v>0.1251</v>
       </c>
       <c r="V125">
-        <v>9.9000000000000008E-3</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="W125">
         <v>1</v>
@@ -18092,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46">
       <c r="A126">
         <v>1</v>
       </c>
@@ -18124,7 +18047,7 @@
         <v>1</v>
       </c>
       <c r="K126">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="L126">
         <v>788</v>
@@ -18133,31 +18056,31 @@
         <v>13</v>
       </c>
       <c r="N126">
-        <v>0.26140000000000002</v>
+        <v>0.2614</v>
       </c>
       <c r="O126">
-        <v>4.9500000000000002E-2</v>
+        <v>0.0495</v>
       </c>
       <c r="P126">
         <v>0.1447</v>
       </c>
       <c r="Q126">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="R126">
         <v>0.151</v>
       </c>
       <c r="S126">
-        <v>5.0799999999999998E-2</v>
+        <v>0.0508</v>
       </c>
       <c r="T126">
-        <v>7.6100000000000001E-2</v>
+        <v>0.0761</v>
       </c>
       <c r="U126">
-        <v>9.5200000000000007E-2</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="V126">
-        <v>3.1699999999999999E-2</v>
+        <v>0.0317</v>
       </c>
       <c r="W126">
         <v>1</v>
@@ -18169,7 +18092,7 @@
         <v>48</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>106</v>
@@ -18232,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46">
       <c r="A127">
         <v>1</v>
       </c>
@@ -18264,7 +18187,7 @@
         <v>1</v>
       </c>
       <c r="K127">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L127">
         <v>708</v>
@@ -18276,28 +18199,28 @@
         <v>0.2641</v>
       </c>
       <c r="O127">
-        <v>5.6500000000000002E-2</v>
+        <v>0.0565</v>
       </c>
       <c r="P127">
         <v>0.1328</v>
       </c>
       <c r="Q127">
-        <v>5.3699999999999998E-2</v>
+        <v>0.0537</v>
       </c>
       <c r="R127">
-        <v>0.17230000000000001</v>
+        <v>0.1723</v>
       </c>
       <c r="S127">
-        <v>3.6700000000000003E-2</v>
+        <v>0.0367</v>
       </c>
       <c r="T127">
-        <v>7.0599999999999996E-2</v>
+        <v>0.0706</v>
       </c>
       <c r="U127">
         <v>0.113</v>
       </c>
       <c r="V127">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="W127">
         <v>0</v>
@@ -18372,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46">
       <c r="A128">
         <v>1</v>
       </c>
@@ -18404,7 +18327,7 @@
         <v>1</v>
       </c>
       <c r="K128">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L128">
         <v>948</v>
@@ -18413,31 +18336,31 @@
         <v>13</v>
       </c>
       <c r="N128">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
       <c r="O128">
-        <v>8.9700000000000002E-2</v>
+        <v>0.0897</v>
       </c>
       <c r="P128">
         <v>0.1192</v>
       </c>
       <c r="Q128">
-        <v>4.4299999999999999E-2</v>
+        <v>0.0443</v>
       </c>
       <c r="R128">
         <v>0.1973</v>
       </c>
       <c r="S128">
-        <v>3.1600000000000003E-2</v>
+        <v>0.0316</v>
       </c>
       <c r="T128">
-        <v>4.9599999999999998E-2</v>
+        <v>0.0496</v>
       </c>
       <c r="U128">
         <v>0.1065</v>
       </c>
       <c r="V128">
-        <v>1.37E-2</v>
+        <v>0.0137</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -18512,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46">
       <c r="A129">
         <v>1</v>
       </c>
@@ -18544,7 +18467,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L129">
         <v>892</v>
@@ -18553,31 +18476,31 @@
         <v>14</v>
       </c>
       <c r="N129">
-        <v>0.31950000000000001</v>
+        <v>0.3195</v>
       </c>
       <c r="O129">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="P129">
-        <v>0.11550000000000001</v>
+        <v>0.1155</v>
       </c>
       <c r="Q129">
-        <v>4.0399999999999998E-2</v>
+        <v>0.0404</v>
       </c>
       <c r="R129">
         <v>0.1827</v>
       </c>
       <c r="S129">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="T129">
-        <v>4.82E-2</v>
+        <v>0.0482</v>
       </c>
       <c r="U129">
         <v>0.1087</v>
       </c>
       <c r="V129">
-        <v>1.46E-2</v>
+        <v>0.0146</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -18652,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46">
       <c r="A130">
         <v>1</v>
       </c>
@@ -18684,7 +18607,7 @@
         <v>1</v>
       </c>
       <c r="K130">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L130">
         <v>1097</v>
@@ -18693,31 +18616,31 @@
         <v>15</v>
       </c>
       <c r="N130">
-        <v>0.30449999999999999</v>
+        <v>0.3045</v>
       </c>
       <c r="O130">
-        <v>6.6500000000000004E-2</v>
+        <v>0.0665</v>
       </c>
       <c r="P130">
         <v>0.1167</v>
       </c>
       <c r="Q130">
-        <v>7.1999999999999995E-2</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="R130">
-        <v>0.17050000000000001</v>
+        <v>0.1705</v>
       </c>
       <c r="S130">
-        <v>3.6499999999999998E-2</v>
+        <v>0.0365</v>
       </c>
       <c r="T130">
-        <v>4.4699999999999997E-2</v>
+        <v>0.0447</v>
       </c>
       <c r="U130">
         <v>0.1404</v>
       </c>
       <c r="V130">
-        <v>3.2800000000000003E-2</v>
+        <v>0.0328</v>
       </c>
       <c r="W130">
         <v>0</v>
@@ -18729,7 +18652,7 @@
         <v>49</v>
       </c>
       <c r="Z130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA130">
         <v>78</v>
@@ -18792,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46">
       <c r="A131">
         <v>1</v>
       </c>
@@ -18824,7 +18747,7 @@
         <v>1</v>
       </c>
       <c r="K131">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="L131">
         <v>673</v>
@@ -18833,31 +18756,31 @@
         <v>16</v>
       </c>
       <c r="N131">
-        <v>0.29270000000000002</v>
+        <v>0.2927</v>
       </c>
       <c r="O131">
-        <v>9.6600000000000005E-2</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="P131">
         <v>0.1144</v>
       </c>
       <c r="Q131">
-        <v>4.3099999999999999E-2</v>
+        <v>0.0431</v>
       </c>
       <c r="R131">
         <v>0.1991</v>
       </c>
       <c r="S131">
-        <v>1.78E-2</v>
+        <v>0.0178</v>
       </c>
       <c r="T131">
-        <v>6.0900000000000003E-2</v>
+        <v>0.0609</v>
       </c>
       <c r="U131">
-        <v>8.77E-2</v>
+        <v>0.0877</v>
       </c>
       <c r="V131">
-        <v>1.78E-2</v>
+        <v>0.0178</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -18932,7 +18855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46">
       <c r="A132">
         <v>1</v>
       </c>
@@ -18964,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="K132">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L132">
         <v>2046</v>
@@ -18973,31 +18896,31 @@
         <v>22</v>
       </c>
       <c r="N132">
-        <v>0.30449999999999999</v>
+        <v>0.3045</v>
       </c>
       <c r="O132">
-        <v>7.9699999999999993E-2</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="P132">
         <v>0.1041</v>
       </c>
       <c r="Q132">
-        <v>5.7700000000000001E-2</v>
+        <v>0.0577</v>
       </c>
       <c r="R132">
         <v>0.1857</v>
       </c>
       <c r="S132">
-        <v>4.6899999999999997E-2</v>
+        <v>0.0469</v>
       </c>
       <c r="T132">
-        <v>4.9399999999999999E-2</v>
+        <v>0.0494</v>
       </c>
       <c r="U132">
         <v>0.1158</v>
       </c>
       <c r="V132">
-        <v>8.3000000000000001E-3</v>
+        <v>0.0083</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -19072,7 +18995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46">
       <c r="A133">
         <v>1</v>
       </c>
@@ -19104,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L133">
         <v>754</v>
@@ -19116,28 +19039,28 @@
         <v>0.313</v>
       </c>
       <c r="O133">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="P133">
         <v>0.1207</v>
       </c>
       <c r="Q133">
-        <v>5.9700000000000003E-2</v>
+        <v>0.0597</v>
       </c>
       <c r="R133">
         <v>0.1366</v>
       </c>
       <c r="S133">
-        <v>4.24E-2</v>
+        <v>0.0424</v>
       </c>
       <c r="T133">
-        <v>5.57E-2</v>
+        <v>0.0557</v>
       </c>
       <c r="U133">
         <v>0.1154</v>
       </c>
       <c r="V133">
-        <v>1.3299999999999999E-2</v>
+        <v>0.0133</v>
       </c>
       <c r="W133">
         <v>1</v>
@@ -19212,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46">
       <c r="A134">
         <v>1</v>
       </c>
@@ -19244,7 +19167,7 @@
         <v>1</v>
       </c>
       <c r="K134">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="L134">
         <v>1978</v>
@@ -19253,31 +19176,31 @@
         <v>26</v>
       </c>
       <c r="N134">
-        <v>0.25180000000000002</v>
+        <v>0.2518</v>
       </c>
       <c r="O134">
-        <v>7.9899999999999999E-2</v>
+        <v>0.0799</v>
       </c>
       <c r="P134">
-        <v>0.14360000000000001</v>
+        <v>0.1436</v>
       </c>
       <c r="Q134">
-        <v>2.93E-2</v>
+        <v>0.0293</v>
       </c>
       <c r="R134">
         <v>0.1704</v>
       </c>
       <c r="S134">
-        <v>3.39E-2</v>
+        <v>0.0339</v>
       </c>
       <c r="T134">
-        <v>8.09E-2</v>
+        <v>0.0809</v>
       </c>
       <c r="U134">
-        <v>8.6499999999999994E-2</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="V134">
-        <v>7.1000000000000004E-3</v>
+        <v>0.0071</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -19352,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46">
       <c r="A135">
         <v>1</v>
       </c>
@@ -19384,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="K135">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L135">
         <v>724</v>
@@ -19393,31 +19316,31 @@
         <v>31</v>
       </c>
       <c r="N135">
-        <v>0.36330000000000001</v>
+        <v>0.3633</v>
       </c>
       <c r="O135">
-        <v>5.5199999999999999E-2</v>
+        <v>0.0552</v>
       </c>
       <c r="P135">
-        <v>9.1200000000000003E-2</v>
+        <v>0.0912</v>
       </c>
       <c r="Q135">
-        <v>0.16850000000000001</v>
+        <v>0.1685</v>
       </c>
       <c r="R135">
-        <v>0.17399999999999999</v>
+        <v>0.174</v>
       </c>
       <c r="S135">
-        <v>2.4899999999999999E-2</v>
+        <v>0.0249</v>
       </c>
       <c r="T135">
-        <v>5.9400000000000001E-2</v>
+        <v>0.0594</v>
       </c>
       <c r="U135">
         <v>0.105</v>
       </c>
       <c r="V135">
-        <v>8.3000000000000001E-3</v>
+        <v>0.0083</v>
       </c>
       <c r="W135">
         <v>1</v>
@@ -19492,7 +19415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46">
       <c r="A136">
         <v>1</v>
       </c>
@@ -19524,7 +19447,7 @@
         <v>1</v>
       </c>
       <c r="K136">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L136">
         <v>883</v>
@@ -19533,10 +19456,10 @@
         <v>10</v>
       </c>
       <c r="N136">
-        <v>0.32619999999999999</v>
+        <v>0.3262</v>
       </c>
       <c r="O136">
-        <v>6.6799999999999998E-2</v>
+        <v>0.0668</v>
       </c>
       <c r="P136">
         <v>0.1133</v>
@@ -19545,19 +19468,19 @@
         <v>0.1234</v>
       </c>
       <c r="R136">
-        <v>0.18909999999999999</v>
+        <v>0.1891</v>
       </c>
       <c r="S136">
-        <v>2.2700000000000001E-2</v>
+        <v>0.0227</v>
       </c>
       <c r="T136">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="U136">
         <v>0.128</v>
       </c>
       <c r="V136">
-        <v>1.8100000000000002E-2</v>
+        <v>0.0181</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -19632,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46">
       <c r="A137">
         <v>1</v>
       </c>
@@ -19664,7 +19587,7 @@
         <v>1</v>
       </c>
       <c r="K137">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L137">
         <v>965</v>
@@ -19673,31 +19596,31 @@
         <v>21</v>
       </c>
       <c r="N137">
-        <v>0.27360000000000001</v>
+        <v>0.2736</v>
       </c>
       <c r="O137">
-        <v>8.5999999999999993E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="P137">
         <v>0.113</v>
       </c>
       <c r="Q137">
-        <v>2.69E-2</v>
+        <v>0.0269</v>
       </c>
       <c r="R137">
         <v>0.1648</v>
       </c>
       <c r="S137">
-        <v>4.6600000000000003E-2</v>
+        <v>0.0466</v>
       </c>
       <c r="T137">
-        <v>5.0799999999999998E-2</v>
+        <v>0.0508</v>
       </c>
       <c r="U137">
-        <v>0.10780000000000001</v>
+        <v>0.1078</v>
       </c>
       <c r="V137">
-        <v>1.66E-2</v>
+        <v>0.0166</v>
       </c>
       <c r="W137">
         <v>1</v>
@@ -19772,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46">
       <c r="A138">
         <v>1</v>
       </c>
@@ -19804,7 +19727,7 @@
         <v>1</v>
       </c>
       <c r="K138">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L138">
         <v>756</v>
@@ -19813,31 +19736,31 @@
         <v>21</v>
       </c>
       <c r="N138">
-        <v>0.28570000000000001</v>
+        <v>0.2857</v>
       </c>
       <c r="O138">
-        <v>6.08E-2</v>
+        <v>0.0608</v>
       </c>
       <c r="P138">
         <v>0.1336</v>
       </c>
       <c r="Q138">
-        <v>2.2499999999999999E-2</v>
+        <v>0.0225</v>
       </c>
       <c r="R138">
-        <v>0.19439999999999999</v>
+        <v>0.1944</v>
       </c>
       <c r="S138">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="T138">
-        <v>5.4199999999999998E-2</v>
+        <v>0.0542</v>
       </c>
       <c r="U138">
-        <v>9.6600000000000005E-2</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="V138">
-        <v>1.1900000000000001E-2</v>
+        <v>0.0119</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -19912,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46">
       <c r="A139">
         <v>0</v>
       </c>
@@ -19944,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="K139">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L139">
         <v>803</v>
@@ -19953,31 +19876,31 @@
         <v>17</v>
       </c>
       <c r="N139">
-        <v>0.31130000000000002</v>
+        <v>0.3113</v>
       </c>
       <c r="O139">
-        <v>9.9599999999999994E-2</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="P139">
         <v>0.1283</v>
       </c>
       <c r="Q139">
-        <v>3.49E-2</v>
+        <v>0.0349</v>
       </c>
       <c r="R139">
-        <v>0.14199999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="S139">
-        <v>3.61E-2</v>
+        <v>0.0361</v>
       </c>
       <c r="T139">
-        <v>4.1099999999999998E-2</v>
+        <v>0.0411</v>
       </c>
       <c r="U139">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="V139">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -20052,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46">
       <c r="A140">
         <v>1</v>
       </c>
@@ -20084,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="K140">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L140">
         <v>1026</v>
@@ -20093,31 +20016,31 @@
         <v>11</v>
       </c>
       <c r="N140">
-        <v>0.29530000000000001</v>
+        <v>0.2953</v>
       </c>
       <c r="O140">
-        <v>9.7500000000000003E-2</v>
+        <v>0.0975</v>
       </c>
       <c r="P140">
-        <v>0.10920000000000001</v>
+        <v>0.1092</v>
       </c>
       <c r="Q140">
-        <v>3.2199999999999999E-2</v>
+        <v>0.0322</v>
       </c>
       <c r="R140">
         <v>0.1472</v>
       </c>
       <c r="S140">
-        <v>2.92E-2</v>
+        <v>0.0292</v>
       </c>
       <c r="T140">
-        <v>6.1400000000000003E-2</v>
+        <v>0.0614</v>
       </c>
       <c r="U140">
-        <v>0.13650000000000001</v>
+        <v>0.1365</v>
       </c>
       <c r="V140">
-        <v>1.0699999999999999E-2</v>
+        <v>0.0107</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -20192,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46">
       <c r="A141">
         <v>1</v>
       </c>
@@ -20224,7 +20147,7 @@
         <v>1</v>
       </c>
       <c r="K141">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L141">
         <v>903</v>
@@ -20236,28 +20159,28 @@
         <v>0.2802</v>
       </c>
       <c r="O141">
-        <v>6.3100000000000003E-2</v>
+        <v>0.0631</v>
       </c>
       <c r="P141">
-        <v>0.12740000000000001</v>
+        <v>0.1274</v>
       </c>
       <c r="Q141">
-        <v>8.7499999999999994E-2</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="R141">
-        <v>0.14510000000000001</v>
+        <v>0.1451</v>
       </c>
       <c r="S141">
-        <v>3.4299999999999997E-2</v>
+        <v>0.0343</v>
       </c>
       <c r="T141">
-        <v>7.1999999999999995E-2</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U141">
         <v>0.1406</v>
       </c>
       <c r="V141">
-        <v>2.6599999999999999E-2</v>
+        <v>0.0266</v>
       </c>
       <c r="W141">
         <v>1</v>
@@ -20332,7 +20255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46">
       <c r="A142">
         <v>0</v>
       </c>
@@ -20364,52 +20287,52 @@
         <v>1</v>
       </c>
       <c r="K142">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="L142">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="M142">
         <v>13</v>
       </c>
       <c r="N142">
-        <v>0.2969</v>
+        <v>0.2991</v>
       </c>
       <c r="O142">
-        <v>8.2500000000000004E-2</v>
+        <v>0.0832</v>
       </c>
       <c r="P142">
-        <v>0.105</v>
+        <v>0.1058</v>
       </c>
       <c r="Q142">
-        <v>1.8200000000000001E-2</v>
+        <v>0.0184</v>
       </c>
       <c r="R142">
-        <v>0.16400000000000001</v>
+        <v>0.1652</v>
       </c>
       <c r="S142">
-        <v>4.9299999999999997E-2</v>
+        <v>0.0497</v>
       </c>
       <c r="T142">
-        <v>5.8900000000000001E-2</v>
+        <v>0.0594</v>
       </c>
       <c r="U142">
-        <v>0.12540000000000001</v>
+        <v>0.1263</v>
       </c>
       <c r="V142">
-        <v>1.9300000000000001E-2</v>
+        <v>0.0119</v>
       </c>
       <c r="W142">
         <v>0</v>
       </c>
       <c r="X142">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Y142">
         <v>17</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>1</v>
@@ -20469,538 +20392,570 @@
         <v>0</v>
       </c>
       <c r="AT142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>23</v>
+      </c>
+      <c r="L143">
+        <v>750</v>
+      </c>
+      <c r="M143">
+        <v>9</v>
+      </c>
+      <c r="N143">
+        <v>0.2867</v>
+      </c>
+      <c r="O143">
+        <v>0.064</v>
+      </c>
+      <c r="P143">
+        <v>0.1173</v>
+      </c>
+      <c r="Q143">
+        <v>0.0973</v>
+      </c>
+      <c r="R143">
+        <v>0.1827</v>
+      </c>
+      <c r="S143">
+        <v>0.044</v>
+      </c>
+      <c r="T143">
+        <v>0.0827</v>
+      </c>
+      <c r="U143">
+        <v>0.104</v>
+      </c>
+      <c r="V143">
+        <v>0.0173</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>632</v>
+      </c>
+      <c r="Y143">
+        <v>30</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>-4</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>0</v>
+      </c>
+      <c r="AD143">
+        <v>1</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>0</v>
+      </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
+      <c r="AP143">
+        <v>0</v>
+      </c>
+      <c r="AQ143">
+        <v>0</v>
+      </c>
+      <c r="AR143">
+        <v>0</v>
+      </c>
+      <c r="AS143">
+        <v>0</v>
+      </c>
+      <c r="AT143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:46">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>8</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>26</v>
+      </c>
+      <c r="L144">
+        <v>667</v>
+      </c>
+      <c r="M144">
+        <v>14</v>
+      </c>
+      <c r="N144">
+        <v>0.3058</v>
+      </c>
+      <c r="O144">
+        <v>0.0765</v>
+      </c>
+      <c r="P144">
+        <v>0.0975</v>
+      </c>
+      <c r="Q144">
+        <v>0.0135</v>
+      </c>
+      <c r="R144">
+        <v>0.1769</v>
+      </c>
+      <c r="S144">
+        <v>0.042</v>
+      </c>
+      <c r="T144">
+        <v>0.0555</v>
+      </c>
+      <c r="U144">
+        <v>0.1184</v>
+      </c>
+      <c r="V144">
+        <v>0.015</v>
+      </c>
+      <c r="W144">
+        <v>1</v>
+      </c>
+      <c r="X144">
+        <v>349</v>
+      </c>
+      <c r="Y144">
+        <v>38</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>-13</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <v>0</v>
+      </c>
+      <c r="AD144">
+        <v>1</v>
+      </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>0</v>
+      </c>
+      <c r="AO144">
+        <v>0</v>
+      </c>
+      <c r="AP144">
+        <v>0</v>
+      </c>
+      <c r="AQ144">
+        <v>0</v>
+      </c>
+      <c r="AR144">
+        <v>0</v>
+      </c>
+      <c r="AS144">
+        <v>0</v>
+      </c>
+      <c r="AT144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:46">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>264</v>
+      </c>
+      <c r="L145">
+        <v>761</v>
+      </c>
+      <c r="M145">
+        <v>15</v>
+      </c>
+      <c r="N145">
+        <v>0.3035</v>
+      </c>
+      <c r="O145">
+        <v>0.0815</v>
+      </c>
+      <c r="P145">
+        <v>0.1524</v>
+      </c>
+      <c r="Q145">
+        <v>0.0118</v>
+      </c>
+      <c r="R145">
+        <v>0.1393</v>
+      </c>
+      <c r="S145">
+        <v>0.0473</v>
+      </c>
+      <c r="T145">
+        <v>0.0565</v>
+      </c>
+      <c r="U145">
+        <v>0.1288</v>
+      </c>
+      <c r="V145">
+        <v>0.0039</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>367</v>
+      </c>
+      <c r="Y145">
+        <v>42</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>-20</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>1</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
+      <c r="AQ145">
+        <v>0</v>
+      </c>
+      <c r="AR145">
+        <v>0</v>
+      </c>
+      <c r="AS145">
+        <v>1</v>
+      </c>
+      <c r="AT145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:46">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>16</v>
+      </c>
+      <c r="L146">
+        <v>321</v>
+      </c>
+      <c r="M146">
+        <v>8</v>
+      </c>
+      <c r="N146">
+        <v>0.3115</v>
+      </c>
+      <c r="O146">
+        <v>0.0654</v>
+      </c>
+      <c r="P146">
+        <v>0.1277</v>
+      </c>
+      <c r="Q146">
+        <v>0.0156</v>
+      </c>
+      <c r="R146">
+        <v>0.1495</v>
+      </c>
+      <c r="S146">
+        <v>0.081</v>
+      </c>
+      <c r="T146">
+        <v>0.053</v>
+      </c>
+      <c r="U146">
+        <v>0.1121</v>
+      </c>
+      <c r="V146">
+        <v>0.0187</v>
+      </c>
+      <c r="W146">
+        <v>1</v>
+      </c>
+      <c r="X146">
+        <v>320</v>
+      </c>
+      <c r="Y146">
+        <v>41</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>-27</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>0</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
+        <v>1</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>0</v>
+      </c>
+      <c r="AO146">
+        <v>0</v>
+      </c>
+      <c r="AP146">
+        <v>0</v>
+      </c>
+      <c r="AQ146">
+        <v>1</v>
+      </c>
+      <c r="AR146">
+        <v>0</v>
+      </c>
+      <c r="AS146">
+        <v>0</v>
+      </c>
+      <c r="AT146">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5241CD3-03A6-4373-9EF5-B02D7A5CE08C}">
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4">
-        <f>B2/141</f>
-        <v>9.2198581560283682E-2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>128</v>
-      </c>
-      <c r="E2" s="4">
-        <f>D2/141</f>
-        <v>0.90780141843971629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C27" si="0">B3/141</f>
-        <v>0.1276595744680851</v>
-      </c>
-      <c r="D3" s="3">
-        <v>123</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E27" si="1">D3/141</f>
-        <v>0.87234042553191493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="D4" s="3">
-        <v>126</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8936170212765957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>119</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.84397163120567376</v>
-      </c>
-      <c r="D5" s="3">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.15602836879432624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.22695035460992907</v>
-      </c>
-      <c r="D6" s="3">
-        <v>109</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.77304964539007093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18439716312056736</v>
-      </c>
-      <c r="D7" s="3">
-        <v>115</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.81560283687943258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <v>86</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.60992907801418439</v>
-      </c>
-      <c r="D8" s="3">
-        <v>55</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.39007092198581561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3">
-        <v>137</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97163120567375882</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="1"/>
-        <v>2.8368794326241134E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3">
-        <v>132</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.93617021276595747</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="1"/>
-        <v>6.3829787234042548E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3">
-        <v>96</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.68085106382978722</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.31914893617021278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3">
-        <v>94</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D12" s="3">
-        <v>47</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3">
-        <v>133</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.94326241134751776</v>
-      </c>
-      <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>5.6737588652482268E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.87943262411347523</v>
-      </c>
-      <c r="D14" s="3">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.12056737588652482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3">
-        <v>131</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.92907801418439717</v>
-      </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0921985815602842E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3">
-        <v>140</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99290780141843971</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0921985815602835E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3">
-        <v>134</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.95035460992907805</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9645390070921988E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3">
-        <v>134</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.95035460992907805</v>
-      </c>
-      <c r="D18" s="3">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9645390070921988E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3">
-        <v>114</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.80851063829787229</v>
-      </c>
-      <c r="D19" s="3">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.19148936170212766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3">
-        <v>119</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.84397163120567376</v>
-      </c>
-      <c r="D20" s="3">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.15602836879432624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3">
-        <v>123</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.87234042553191493</v>
-      </c>
-      <c r="D21" s="3">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1276595744680851</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="3">
-        <v>127</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.900709219858156</v>
-      </c>
-      <c r="D22" s="3">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="1"/>
-        <v>9.9290780141843976E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="3">
-        <v>134</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.95035460992907805</v>
-      </c>
-      <c r="D23" s="3">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9645390070921988E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3">
-        <v>128</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.90780141843971629</v>
-      </c>
-      <c r="D24" s="3">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="1"/>
-        <v>9.2198581560283682E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3">
-        <v>136</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.96453900709219853</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="1"/>
-        <v>3.5460992907801421E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3">
-        <v>122</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86524822695035464</v>
-      </c>
-      <c r="D26" s="3">
-        <v>19</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13475177304964539</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="3">
-        <v>139</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.98581560283687941</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4184397163120567E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>